--- a/d7/SECONDO ESERCIZIO - D7.xlsx
+++ b/d7/SECONDO ESERCIZIO - D7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5921c20450487a2e/Documents/Compiti-Epicode/d7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{BEBBE07B-3E27-451A-B888-2DD188A9F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E1DCE23-6A89-4A49-ADB1-F5BF80A1B707}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{BEBBE07B-3E27-451A-B888-2DD188A9F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE486794-478A-4CF1-AA18-882E39C5604A}"/>
   <bookViews>
-    <workbookView xWindow="9" yWindow="0" windowWidth="19328" windowHeight="12291" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercezio" sheetId="1" r:id="rId1"/>
@@ -220,8 +220,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -234,16 +234,19 @@
       <sz val="14"/>
       <color rgb="FF1C1C1C"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -406,35 +409,34 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2318,7 +2320,7 @@
       <c r="D110" s="4">
         <v>40915</v>
       </c>
-      <c r="E110" s="25">
+      <c r="E110" s="24">
         <f>D110-C110</f>
         <v>-11950</v>
       </c>
@@ -3221,7 +3223,7 @@
       <c r="D170" s="4">
         <v>50809</v>
       </c>
-      <c r="E170" s="25">
+      <c r="E170" s="24">
         <f>D170-C170</f>
         <v>9736</v>
       </c>
@@ -3584,7 +3586,7 @@
       <c r="D194" s="4">
         <v>43561</v>
       </c>
-      <c r="E194" s="25">
+      <c r="E194" s="24">
         <f>D194-C194</f>
         <v>10077</v>
       </c>
@@ -10695,11 +10697,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA7F92-0E6A-4827-B0BD-254738F03125}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10711,15 +10712,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
@@ -10758,15 +10759,15 @@
         <v>55070</v>
       </c>
       <c r="E3" s="14">
-        <f>1-C3/D3</f>
+        <f t="shared" ref="E3:E66" si="0">1-C3/D3</f>
         <v>0.45048120573815142</v>
       </c>
       <c r="F3" s="20">
-        <f>E3*13%</f>
+        <f t="shared" ref="F3:F66" si="1">E3*13%</f>
         <v>5.8562556745959685E-2</v>
       </c>
       <c r="G3" s="21">
-        <f>SUM(C3,D3)</f>
+        <f t="shared" ref="G3:G66" si="2">SUM(C3,D3)</f>
         <v>85332</v>
       </c>
     </row>
@@ -10784,15 +10785,15 @@
         <v>64478</v>
       </c>
       <c r="E4" s="14">
-        <f>1-C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.41156673594094106</v>
       </c>
       <c r="F4" s="20">
-        <f>E4*13%</f>
+        <f t="shared" si="1"/>
         <v>5.3503675672322337E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>SUM(C4,D4)</f>
+        <f t="shared" si="2"/>
         <v>102419</v>
       </c>
     </row>
@@ -10810,15 +10811,15 @@
         <v>51395</v>
       </c>
       <c r="E5" s="14">
-        <f>1-C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.41019554431364924</v>
       </c>
       <c r="F5" s="20">
-        <f>E5*13%</f>
+        <f t="shared" si="1"/>
         <v>5.33254207607744E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>SUM(C5,D5)</f>
+        <f t="shared" si="2"/>
         <v>81708</v>
       </c>
     </row>
@@ -10836,15 +10837,15 @@
         <v>67636</v>
       </c>
       <c r="E6" s="14">
-        <f>1-C6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.38268082086462829</v>
       </c>
       <c r="F6" s="20">
-        <f>E6*13%</f>
+        <f t="shared" si="1"/>
         <v>4.9748506712401677E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>SUM(C6,D6)</f>
+        <f t="shared" si="2"/>
         <v>109389</v>
       </c>
     </row>
@@ -10862,15 +10863,15 @@
         <v>61797</v>
       </c>
       <c r="E7" s="14">
-        <f>1-C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.36666828486819747</v>
       </c>
       <c r="F7" s="20">
-        <f>E7*13%</f>
+        <f t="shared" si="1"/>
         <v>4.7666877032865672E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>SUM(C7,D7)</f>
+        <f t="shared" si="2"/>
         <v>100935</v>
       </c>
     </row>
@@ -10888,15 +10889,15 @@
         <v>58930</v>
       </c>
       <c r="E8" s="14">
-        <f>1-C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.360987612421517</v>
       </c>
       <c r="F8" s="20">
-        <f>E8*13%</f>
+        <f t="shared" si="1"/>
         <v>4.6928389614797214E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>SUM(C8,D8)</f>
+        <f t="shared" si="2"/>
         <v>96587</v>
       </c>
     </row>
@@ -10914,15 +10915,15 @@
         <v>54445</v>
       </c>
       <c r="E9" s="14">
-        <f>1-C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.31448250528055832</v>
       </c>
       <c r="F9" s="20">
-        <f>E9*13%</f>
+        <f t="shared" si="1"/>
         <v>4.0882725686472582E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>SUM(C9,D9)</f>
+        <f t="shared" si="2"/>
         <v>91768</v>
       </c>
     </row>
@@ -10940,15 +10941,15 @@
         <v>48652</v>
       </c>
       <c r="E10" s="14">
-        <f>1-C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.25528241387815509</v>
       </c>
       <c r="F10" s="20">
-        <f>E10*13%</f>
+        <f t="shared" si="1"/>
         <v>3.3186713804160162E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>SUM(C10,D10)</f>
+        <f t="shared" si="2"/>
         <v>84884</v>
       </c>
     </row>
@@ -10966,15 +10967,15 @@
         <v>48667</v>
       </c>
       <c r="E11" s="14">
-        <f>1-C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.24269011856083178</v>
       </c>
       <c r="F11" s="20">
-        <f>E11*13%</f>
+        <f t="shared" si="1"/>
         <v>3.154971541290813E-2</v>
       </c>
       <c r="G11" s="21">
-        <f>SUM(C11,D11)</f>
+        <f t="shared" si="2"/>
         <v>85523</v>
       </c>
     </row>
@@ -10992,15 +10993,15 @@
         <v>68000</v>
       </c>
       <c r="E12" s="14">
-        <f>1-C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.16841176470588237</v>
       </c>
       <c r="F12" s="20">
-        <f>E12*13%</f>
+        <f t="shared" si="1"/>
         <v>2.1893529411764708E-2</v>
       </c>
       <c r="G12" s="21">
-        <f>SUM(C12,D12)</f>
+        <f t="shared" si="2"/>
         <v>124548</v>
       </c>
     </row>
@@ -11018,15 +11019,15 @@
         <v>59049</v>
       </c>
       <c r="E13" s="14">
-        <f>1-C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.15803823942827144</v>
       </c>
       <c r="F13" s="20">
-        <f>E13*13%</f>
+        <f t="shared" si="1"/>
         <v>2.0544971125675288E-2</v>
       </c>
       <c r="G13" s="21">
-        <f>SUM(C13,D13)</f>
+        <f t="shared" si="2"/>
         <v>108766</v>
       </c>
     </row>
@@ -11044,15 +11045,15 @@
         <v>49991</v>
       </c>
       <c r="E14" s="14">
-        <f>1-C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.14708647556560184</v>
       </c>
       <c r="F14" s="20">
-        <f>E14*13%</f>
+        <f t="shared" si="1"/>
         <v>1.9121241823528239E-2</v>
       </c>
       <c r="G14" s="21">
-        <f>SUM(C14,D14)</f>
+        <f t="shared" si="2"/>
         <v>92629</v>
       </c>
     </row>
@@ -11070,15 +11071,15 @@
         <v>62140</v>
       </c>
       <c r="E15" s="14">
-        <f>1-C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.14616993884776308</v>
       </c>
       <c r="F15" s="20">
-        <f>E15*13%</f>
+        <f t="shared" si="1"/>
         <v>1.90020920502092E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>SUM(C15,D15)</f>
+        <f t="shared" si="2"/>
         <v>115197</v>
       </c>
     </row>
@@ -11096,15 +11097,15 @@
         <v>57432</v>
       </c>
       <c r="E16" s="14">
-        <f>1-C16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.12856943864047921</v>
       </c>
       <c r="F16" s="20">
-        <f>E16*13%</f>
+        <f t="shared" si="1"/>
         <v>1.6714027023262298E-2</v>
       </c>
       <c r="G16" s="21">
-        <f>SUM(C16,D16)</f>
+        <f t="shared" si="2"/>
         <v>107480</v>
       </c>
     </row>
@@ -11122,15 +11123,15 @@
         <v>69592</v>
       </c>
       <c r="E17" s="14">
-        <f>1-C17/D17</f>
+        <f t="shared" si="0"/>
         <v>9.8919416024830453E-2</v>
       </c>
       <c r="F17" s="20">
-        <f>E17*13%</f>
+        <f t="shared" si="1"/>
         <v>1.285952408322796E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>SUM(C17,D17)</f>
+        <f t="shared" si="2"/>
         <v>132300</v>
       </c>
     </row>
@@ -11148,15 +11149,15 @@
         <v>34874</v>
       </c>
       <c r="E18" s="14">
-        <f>1-C18/D18</f>
+        <f t="shared" si="0"/>
         <v>8.2697711762344417E-2</v>
       </c>
       <c r="F18" s="20">
-        <f>E18*13%</f>
+        <f t="shared" si="1"/>
         <v>1.0750702529104775E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>SUM(C18,D18)</f>
+        <f t="shared" si="2"/>
         <v>66864</v>
       </c>
     </row>
@@ -11174,15 +11175,15 @@
         <v>45723</v>
       </c>
       <c r="E19" s="14">
-        <f>1-C19/D19</f>
+        <f t="shared" si="0"/>
         <v>6.3644117840036762E-2</v>
       </c>
       <c r="F19" s="20">
-        <f>E19*13%</f>
+        <f t="shared" si="1"/>
         <v>8.2737353192047797E-3</v>
       </c>
       <c r="G19" s="21">
-        <f>SUM(C19,D19)</f>
+        <f t="shared" si="2"/>
         <v>88536</v>
       </c>
     </row>
@@ -11200,15 +11201,15 @@
         <v>67017</v>
       </c>
       <c r="E20" s="14">
-        <f>1-C20/D20</f>
+        <f t="shared" si="0"/>
         <v>5.3568497545398941E-2</v>
       </c>
       <c r="F20" s="20">
-        <f>E20*13%</f>
+        <f t="shared" si="1"/>
         <v>6.9639046809018626E-3</v>
       </c>
       <c r="G20" s="21">
-        <f>SUM(C20,D20)</f>
+        <f t="shared" si="2"/>
         <v>130444</v>
       </c>
     </row>
@@ -11226,15 +11227,15 @@
         <v>38259</v>
       </c>
       <c r="E21" s="14">
-        <f>1-C21/D21</f>
+        <f t="shared" si="0"/>
         <v>1.6571264277686293E-2</v>
       </c>
       <c r="F21" s="20">
-        <f>E21*13%</f>
+        <f t="shared" si="1"/>
         <v>2.1542643560992182E-3</v>
       </c>
       <c r="G21" s="21">
-        <f>SUM(C21,D21)</f>
+        <f t="shared" si="2"/>
         <v>75884</v>
       </c>
     </row>
@@ -11252,15 +11253,15 @@
         <v>63722</v>
       </c>
       <c r="E22" s="14">
-        <f>1-C22/D22</f>
+        <f t="shared" si="0"/>
         <v>-5.208562192021593E-2</v>
       </c>
       <c r="F22" s="20">
-        <f>E22*13%</f>
+        <f t="shared" si="1"/>
         <v>-6.7711308496280712E-3</v>
       </c>
       <c r="G22" s="21">
-        <f>SUM(C22,D22)</f>
+        <f t="shared" si="2"/>
         <v>130763</v>
       </c>
     </row>
@@ -11278,15 +11279,15 @@
         <v>37731</v>
       </c>
       <c r="E23" s="14">
-        <f>1-C23/D23</f>
+        <f t="shared" si="0"/>
         <v>-0.12931011634995104</v>
       </c>
       <c r="F23" s="20">
-        <f>E23*13%</f>
+        <f t="shared" si="1"/>
         <v>-1.6810315125493636E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>SUM(C23,D23)</f>
+        <f t="shared" si="2"/>
         <v>80341</v>
       </c>
     </row>
@@ -11304,15 +11305,15 @@
         <v>38343</v>
       </c>
       <c r="E24" s="14">
-        <f>1-C24/D24</f>
+        <f t="shared" si="0"/>
         <v>-0.13436611637065443</v>
       </c>
       <c r="F24" s="20">
-        <f>E24*13%</f>
+        <f t="shared" si="1"/>
         <v>-1.7467595128185076E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>SUM(C24,D24)</f>
+        <f t="shared" si="2"/>
         <v>81838</v>
       </c>
     </row>
@@ -11330,15 +11331,15 @@
         <v>53562</v>
       </c>
       <c r="E25" s="14">
-        <f>1-C25/D25</f>
+        <f t="shared" si="0"/>
         <v>-0.13845636832082442</v>
       </c>
       <c r="F25" s="20">
-        <f>E25*13%</f>
+        <f t="shared" si="1"/>
         <v>-1.7999327881707175E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>SUM(C25,D25)</f>
+        <f t="shared" si="2"/>
         <v>114540</v>
       </c>
     </row>
@@ -11356,15 +11357,15 @@
         <v>48746</v>
       </c>
       <c r="E26" s="14">
-        <f>1-C26/D26</f>
+        <f t="shared" si="0"/>
         <v>-0.15712058425306696</v>
       </c>
       <c r="F26" s="20">
-        <f>E26*13%</f>
+        <f t="shared" si="1"/>
         <v>-2.0425675952898705E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>SUM(C26,D26)</f>
+        <f t="shared" si="2"/>
         <v>105151</v>
       </c>
     </row>
@@ -11382,15 +11383,15 @@
         <v>51503</v>
       </c>
       <c r="E27" s="14">
-        <f>1-C27/D27</f>
+        <f t="shared" si="0"/>
         <v>-0.23818030017668868</v>
       </c>
       <c r="F27" s="20">
-        <f>E27*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.0963439022969528E-2</v>
       </c>
       <c r="G27" s="21">
-        <f>SUM(C27,D27)</f>
+        <f t="shared" si="2"/>
         <v>115273</v>
       </c>
     </row>
@@ -11408,15 +11409,15 @@
         <v>42879</v>
       </c>
       <c r="E28" s="14">
-        <f>1-C28/D28</f>
+        <f t="shared" si="0"/>
         <v>-0.27435341309265615</v>
       </c>
       <c r="F28" s="20">
-        <f>E28*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.5665943702045302E-2</v>
       </c>
       <c r="G28" s="21">
-        <f>SUM(C28,D28)</f>
+        <f t="shared" si="2"/>
         <v>97522</v>
       </c>
     </row>
@@ -11434,15 +11435,15 @@
         <v>51803</v>
       </c>
       <c r="E29" s="14">
-        <f>1-C29/D29</f>
+        <f t="shared" si="0"/>
         <v>-0.28525374978283113</v>
       </c>
       <c r="F29" s="20">
-        <f>E29*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.7082987471768046E-2</v>
       </c>
       <c r="G29" s="21">
-        <f>SUM(C29,D29)</f>
+        <f t="shared" si="2"/>
         <v>118383</v>
       </c>
     </row>
@@ -11460,15 +11461,15 @@
         <v>44755</v>
       </c>
       <c r="E30" s="14">
-        <f>1-C30/D30</f>
+        <f t="shared" si="0"/>
         <v>-0.29889397832644393</v>
       </c>
       <c r="F30" s="20">
-        <f>E30*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.8856217182437709E-2</v>
       </c>
       <c r="G30" s="21">
-        <f>SUM(C30,D30)</f>
+        <f t="shared" si="2"/>
         <v>102887</v>
       </c>
     </row>
@@ -11486,15 +11487,15 @@
         <v>49181</v>
       </c>
       <c r="E31" s="14">
-        <f>1-C31/D31</f>
+        <f t="shared" si="0"/>
         <v>-0.37685284967772104</v>
       </c>
       <c r="F31" s="20">
-        <f>E31*13%</f>
+        <f t="shared" si="1"/>
         <v>-4.8990870458103734E-2</v>
       </c>
       <c r="G31" s="21">
-        <f>SUM(C31,D31)</f>
+        <f t="shared" si="2"/>
         <v>116896</v>
       </c>
     </row>
@@ -11512,15 +11513,15 @@
         <v>42239</v>
       </c>
       <c r="E32" s="14">
-        <f>1-C32/D32</f>
+        <f t="shared" si="0"/>
         <v>-0.61881199839011347</v>
       </c>
       <c r="F32" s="20">
-        <f>E32*13%</f>
+        <f t="shared" si="1"/>
         <v>-8.0445559790714757E-2</v>
       </c>
       <c r="G32" s="21">
-        <f>SUM(C32,D32)</f>
+        <f t="shared" si="2"/>
         <v>110616</v>
       </c>
     </row>
@@ -11538,15 +11539,15 @@
         <v>37412</v>
       </c>
       <c r="E33" s="14">
-        <f>1-C33/D33</f>
+        <f t="shared" si="0"/>
         <v>-0.73161017855233612</v>
       </c>
       <c r="F33" s="20">
-        <f>E33*13%</f>
+        <f t="shared" si="1"/>
         <v>-9.5109323211803695E-2</v>
       </c>
       <c r="G33" s="21">
-        <f>SUM(C33,D33)</f>
+        <f t="shared" si="2"/>
         <v>102195</v>
       </c>
     </row>
@@ -11564,15 +11565,15 @@
         <v>35555</v>
       </c>
       <c r="E34" s="14">
-        <f>1-C34/D34</f>
+        <f t="shared" si="0"/>
         <v>-0.95663057235269311</v>
       </c>
       <c r="F34" s="20">
-        <f>E34*13%</f>
+        <f t="shared" si="1"/>
         <v>-0.1243619744058501</v>
       </c>
       <c r="G34" s="21">
-        <f>SUM(C34,D34)</f>
+        <f t="shared" si="2"/>
         <v>105123</v>
       </c>
     </row>
@@ -11590,15 +11591,15 @@
         <v>58645</v>
       </c>
       <c r="E35" s="14">
-        <f>1-C35/D35</f>
+        <f t="shared" si="0"/>
         <v>0.21205558871174013</v>
       </c>
       <c r="F35" s="20">
-        <f>E35*13%</f>
+        <f t="shared" si="1"/>
         <v>2.7567226532526218E-2</v>
       </c>
       <c r="G35" s="21">
-        <f>SUM(C35,D35)</f>
+        <f t="shared" si="2"/>
         <v>104854</v>
       </c>
     </row>
@@ -11616,15 +11617,15 @@
         <v>36167</v>
       </c>
       <c r="E36" s="14">
-        <f>1-C36/D36</f>
+        <f t="shared" si="0"/>
         <v>-0.29056875051842845</v>
       </c>
       <c r="F36" s="20">
-        <f>E36*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.77739375673957E-2</v>
       </c>
       <c r="G36" s="21">
-        <f>SUM(C36,D36)</f>
+        <f t="shared" si="2"/>
         <v>82843</v>
       </c>
     </row>
@@ -11642,15 +11643,15 @@
         <v>67820</v>
       </c>
       <c r="E37" s="14">
-        <f>1-C37/D37</f>
+        <f t="shared" si="0"/>
         <v>0.49784724270126801</v>
       </c>
       <c r="F37" s="20">
-        <f>E37*13%</f>
+        <f t="shared" si="1"/>
         <v>6.4720141551164845E-2</v>
       </c>
       <c r="G37" s="21">
-        <f>SUM(C37,D37)</f>
+        <f t="shared" si="2"/>
         <v>101876</v>
       </c>
     </row>
@@ -11668,15 +11669,15 @@
         <v>61702</v>
       </c>
       <c r="E38" s="14">
-        <f>1-C38/D38</f>
+        <f t="shared" si="0"/>
         <v>0.45906129460957501</v>
       </c>
       <c r="F38" s="20">
-        <f>E38*13%</f>
+        <f t="shared" si="1"/>
         <v>5.9677968299244752E-2</v>
       </c>
       <c r="G38" s="21">
-        <f>SUM(C38,D38)</f>
+        <f t="shared" si="2"/>
         <v>95079</v>
       </c>
     </row>
@@ -11694,15 +11695,15 @@
         <v>69579</v>
       </c>
       <c r="E39" s="14">
-        <f>1-C39/D39</f>
+        <f t="shared" si="0"/>
         <v>0.35448914183877323</v>
       </c>
       <c r="F39" s="20">
-        <f>E39*13%</f>
+        <f t="shared" si="1"/>
         <v>4.6083588439040521E-2</v>
       </c>
       <c r="G39" s="21">
-        <f>SUM(C39,D39)</f>
+        <f t="shared" si="2"/>
         <v>114493</v>
       </c>
     </row>
@@ -11720,15 +11721,15 @@
         <v>61988</v>
       </c>
       <c r="E40" s="14">
-        <f>1-C40/D40</f>
+        <f t="shared" si="0"/>
         <v>0.27808608117700195</v>
       </c>
       <c r="F40" s="20">
-        <f>E40*13%</f>
+        <f t="shared" si="1"/>
         <v>3.6151190553010255E-2</v>
       </c>
       <c r="G40" s="21">
-        <f>SUM(C40,D40)</f>
+        <f t="shared" si="2"/>
         <v>106738</v>
       </c>
     </row>
@@ -11746,15 +11747,15 @@
         <v>69897</v>
       </c>
       <c r="E41" s="14">
-        <f>1-C41/D41</f>
+        <f t="shared" si="0"/>
         <v>0.22115398371890072</v>
       </c>
       <c r="F41" s="20">
-        <f>E41*13%</f>
+        <f t="shared" si="1"/>
         <v>2.8750017883457095E-2</v>
       </c>
       <c r="G41" s="21">
-        <f>SUM(C41,D41)</f>
+        <f t="shared" si="2"/>
         <v>124336</v>
       </c>
     </row>
@@ -11772,15 +11773,15 @@
         <v>58546</v>
       </c>
       <c r="E42" s="14">
-        <f>1-C42/D42</f>
+        <f t="shared" si="0"/>
         <v>0.21273870119222493</v>
       </c>
       <c r="F42" s="20">
-        <f>E42*13%</f>
+        <f t="shared" si="1"/>
         <v>2.7656031154989241E-2</v>
       </c>
       <c r="G42" s="21">
-        <f>SUM(C42,D42)</f>
+        <f t="shared" si="2"/>
         <v>104637</v>
       </c>
     </row>
@@ -11798,15 +11799,15 @@
         <v>43888</v>
       </c>
       <c r="E43" s="14">
-        <f>1-C43/D43</f>
+        <f t="shared" si="0"/>
         <v>0.19916605905942397</v>
       </c>
       <c r="F43" s="20">
-        <f>E43*13%</f>
+        <f t="shared" si="1"/>
         <v>2.5891587677725116E-2</v>
       </c>
       <c r="G43" s="21">
-        <f>SUM(C43,D43)</f>
+        <f t="shared" si="2"/>
         <v>79035</v>
       </c>
     </row>
@@ -11824,15 +11825,15 @@
         <v>67158</v>
       </c>
       <c r="E44" s="14">
-        <f>1-C44/D44</f>
+        <f t="shared" si="0"/>
         <v>0.1825545727984752</v>
       </c>
       <c r="F44" s="20">
-        <f>E44*13%</f>
+        <f t="shared" si="1"/>
         <v>2.3732094463801777E-2</v>
       </c>
       <c r="G44" s="21">
-        <f>SUM(C44,D44)</f>
+        <f t="shared" si="2"/>
         <v>122056</v>
       </c>
     </row>
@@ -11850,15 +11851,15 @@
         <v>66663</v>
       </c>
       <c r="E45" s="14">
-        <f>1-C45/D45</f>
+        <f t="shared" si="0"/>
         <v>0.16121386676267191</v>
       </c>
       <c r="F45" s="20">
-        <f>E45*13%</f>
+        <f t="shared" si="1"/>
         <v>2.0957802679147351E-2</v>
       </c>
       <c r="G45" s="21">
-        <f>SUM(C45,D45)</f>
+        <f t="shared" si="2"/>
         <v>122579</v>
       </c>
     </row>
@@ -11876,15 +11877,15 @@
         <v>37294</v>
       </c>
       <c r="E46" s="14">
-        <f>1-C46/D46</f>
+        <f t="shared" si="0"/>
         <v>0.15822920577036526</v>
       </c>
       <c r="F46" s="20">
-        <f>E46*13%</f>
+        <f t="shared" si="1"/>
         <v>2.0569796750147484E-2</v>
       </c>
       <c r="G46" s="21">
-        <f>SUM(C46,D46)</f>
+        <f t="shared" si="2"/>
         <v>68687</v>
       </c>
     </row>
@@ -11902,15 +11903,15 @@
         <v>45000</v>
       </c>
       <c r="E47" s="14">
-        <f>1-C47/D47</f>
+        <f t="shared" si="0"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="F47" s="20">
-        <f>E47*13%</f>
+        <f t="shared" si="1"/>
         <v>2.0222222222222225E-2</v>
       </c>
       <c r="G47" s="21">
-        <f>SUM(C47,D47)</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -11928,15 +11929,15 @@
         <v>42748</v>
       </c>
       <c r="E48" s="14">
-        <f>1-C48/D48</f>
+        <f t="shared" si="0"/>
         <v>0.15427622344905023</v>
       </c>
       <c r="F48" s="20">
-        <f>E48*13%</f>
+        <f t="shared" si="1"/>
         <v>2.0055909048376532E-2</v>
       </c>
       <c r="G48" s="21">
-        <f>SUM(C48,D48)</f>
+        <f t="shared" si="2"/>
         <v>78901</v>
       </c>
     </row>
@@ -11954,15 +11955,15 @@
         <v>64382</v>
       </c>
       <c r="E49" s="14">
-        <f>1-C49/D49</f>
+        <f t="shared" si="0"/>
         <v>0.14086235283153681</v>
       </c>
       <c r="F49" s="20">
-        <f>E49*13%</f>
+        <f t="shared" si="1"/>
         <v>1.8312105868099785E-2</v>
       </c>
       <c r="G49" s="21">
-        <f>SUM(C49,D49)</f>
+        <f t="shared" si="2"/>
         <v>119695</v>
       </c>
     </row>
@@ -11980,15 +11981,15 @@
         <v>66224</v>
       </c>
       <c r="E50" s="14">
-        <f>1-C50/D50</f>
+        <f t="shared" si="0"/>
         <v>0.13581179028750912</v>
       </c>
       <c r="F50" s="20">
-        <f>E50*13%</f>
+        <f t="shared" si="1"/>
         <v>1.7655532737376186E-2</v>
       </c>
       <c r="G50" s="21">
-        <f>SUM(C50,D50)</f>
+        <f t="shared" si="2"/>
         <v>123454</v>
       </c>
     </row>
@@ -12006,15 +12007,15 @@
         <v>43998</v>
       </c>
       <c r="E51" s="14">
-        <f>1-C51/D51</f>
+        <f t="shared" si="0"/>
         <v>0.10291376880767311</v>
       </c>
       <c r="F51" s="20">
-        <f>E51*13%</f>
+        <f t="shared" si="1"/>
         <v>1.3378789944997504E-2</v>
       </c>
       <c r="G51" s="21">
-        <f>SUM(C51,D51)</f>
+        <f t="shared" si="2"/>
         <v>83468</v>
       </c>
     </row>
@@ -12032,15 +12033,15 @@
         <v>48230</v>
       </c>
       <c r="E52" s="14">
-        <f>1-C52/D52</f>
+        <f t="shared" si="0"/>
         <v>9.6288617043334024E-2</v>
       </c>
       <c r="F52" s="20">
-        <f>E52*13%</f>
+        <f t="shared" si="1"/>
         <v>1.2517520215633423E-2</v>
       </c>
       <c r="G52" s="21">
-        <f>SUM(C52,D52)</f>
+        <f t="shared" si="2"/>
         <v>91816</v>
       </c>
     </row>
@@ -12058,15 +12059,15 @@
         <v>53210</v>
       </c>
       <c r="E53" s="14">
-        <f>1-C53/D53</f>
+        <f t="shared" si="0"/>
         <v>7.5436947942116195E-2</v>
       </c>
       <c r="F53" s="20">
-        <f>E53*13%</f>
+        <f t="shared" si="1"/>
         <v>9.8068032324751062E-3</v>
       </c>
       <c r="G53" s="21">
-        <f>SUM(C53,D53)</f>
+        <f t="shared" si="2"/>
         <v>102406</v>
       </c>
     </row>
@@ -12084,15 +12085,15 @@
         <v>63680</v>
       </c>
       <c r="E54" s="14">
-        <f>1-C54/D54</f>
+        <f t="shared" si="0"/>
         <v>3.533291457286436E-2</v>
       </c>
       <c r="F54" s="20">
-        <f>E54*13%</f>
+        <f t="shared" si="1"/>
         <v>4.593278894472367E-3</v>
       </c>
       <c r="G54" s="21">
-        <f>SUM(C54,D54)</f>
+        <f t="shared" si="2"/>
         <v>125110</v>
       </c>
     </row>
@@ -12110,15 +12111,15 @@
         <v>67117</v>
       </c>
       <c r="E55" s="14">
-        <f>1-C55/D55</f>
+        <f t="shared" si="0"/>
         <v>3.3300058107483932E-2</v>
       </c>
       <c r="F55" s="20">
-        <f>E55*13%</f>
+        <f t="shared" si="1"/>
         <v>4.3290075539729111E-3</v>
       </c>
       <c r="G55" s="21">
-        <f>SUM(C55,D55)</f>
+        <f t="shared" si="2"/>
         <v>131999</v>
       </c>
     </row>
@@ -12136,15 +12137,15 @@
         <v>52878</v>
       </c>
       <c r="E56" s="14">
-        <f>1-C56/D56</f>
+        <f t="shared" si="0"/>
         <v>-2.6400393358296359E-2</v>
       </c>
       <c r="F56" s="20">
-        <f>E56*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.4320511365785269E-3</v>
       </c>
       <c r="G56" s="21">
-        <f>SUM(C56,D56)</f>
+        <f t="shared" si="2"/>
         <v>107152</v>
       </c>
     </row>
@@ -12162,15 +12163,15 @@
         <v>36178</v>
       </c>
       <c r="E57" s="14">
-        <f>1-C57/D57</f>
+        <f t="shared" si="0"/>
         <v>-7.070595389463219E-2</v>
       </c>
       <c r="F57" s="20">
-        <f>E57*13%</f>
+        <f t="shared" si="1"/>
         <v>-9.1917740063021842E-3</v>
       </c>
       <c r="G57" s="21">
-        <f>SUM(C57,D57)</f>
+        <f t="shared" si="2"/>
         <v>74914</v>
       </c>
     </row>
@@ -12188,15 +12189,15 @@
         <v>55904</v>
       </c>
       <c r="E58" s="14">
-        <f>1-C58/D58</f>
+        <f t="shared" si="0"/>
         <v>-0.1084358900973097</v>
       </c>
       <c r="F58" s="20">
-        <f>E58*13%</f>
+        <f t="shared" si="1"/>
         <v>-1.4096665712650261E-2</v>
       </c>
       <c r="G58" s="21">
-        <f>SUM(C58,D58)</f>
+        <f t="shared" si="2"/>
         <v>117870</v>
       </c>
     </row>
@@ -12214,15 +12215,15 @@
         <v>43843</v>
       </c>
       <c r="E59" s="14">
-        <f>1-C59/D59</f>
+        <f t="shared" si="0"/>
         <v>-0.16554524097347345</v>
       </c>
       <c r="F59" s="20">
-        <f>E59*13%</f>
+        <f t="shared" si="1"/>
         <v>-2.1520881326551548E-2</v>
       </c>
       <c r="G59" s="21">
-        <f>SUM(C59,D59)</f>
+        <f t="shared" si="2"/>
         <v>94944</v>
       </c>
     </row>
@@ -12240,15 +12241,15 @@
         <v>51478</v>
       </c>
       <c r="E60" s="14">
-        <f>1-C60/D60</f>
+        <f t="shared" si="0"/>
         <v>-0.20457282722716497</v>
       </c>
       <c r="F60" s="20">
-        <f>E60*13%</f>
+        <f t="shared" si="1"/>
         <v>-2.6594467539531447E-2</v>
       </c>
       <c r="G60" s="21">
-        <f>SUM(C60,D60)</f>
+        <f t="shared" si="2"/>
         <v>113487</v>
       </c>
     </row>
@@ -12266,15 +12267,15 @@
         <v>55767</v>
       </c>
       <c r="E61" s="14">
-        <f>1-C61/D61</f>
+        <f t="shared" si="0"/>
         <v>-0.23743432495920525</v>
       </c>
       <c r="F61" s="20">
-        <f>E61*13%</f>
+        <f t="shared" si="1"/>
         <v>-3.0866462244696684E-2</v>
       </c>
       <c r="G61" s="21">
-        <f>SUM(C61,D61)</f>
+        <f t="shared" si="2"/>
         <v>124775</v>
       </c>
     </row>
@@ -12292,15 +12293,15 @@
         <v>43430</v>
       </c>
       <c r="E62" s="14">
-        <f>1-C62/D62</f>
+        <f t="shared" si="0"/>
         <v>-0.31494358738199391</v>
       </c>
       <c r="F62" s="20">
-        <f>E62*13%</f>
+        <f t="shared" si="1"/>
         <v>-4.0942666359659208E-2</v>
       </c>
       <c r="G62" s="21">
-        <f>SUM(C62,D62)</f>
+        <f t="shared" si="2"/>
         <v>100538</v>
       </c>
     </row>
@@ -12318,15 +12319,15 @@
         <v>32027</v>
       </c>
       <c r="E63" s="14">
-        <f>1-C63/D63</f>
+        <f t="shared" si="0"/>
         <v>-0.53707809036125775</v>
       </c>
       <c r="F63" s="20">
-        <f>E63*13%</f>
+        <f t="shared" si="1"/>
         <v>-6.9820151746963516E-2</v>
       </c>
       <c r="G63" s="21">
-        <f>SUM(C63,D63)</f>
+        <f t="shared" si="2"/>
         <v>81255</v>
       </c>
     </row>
@@ -12344,15 +12345,15 @@
         <v>36609</v>
       </c>
       <c r="E64" s="14">
-        <f>1-C64/D64</f>
+        <f t="shared" si="0"/>
         <v>-0.55538255620202692</v>
       </c>
       <c r="F64" s="20">
-        <f>E64*13%</f>
+        <f t="shared" si="1"/>
         <v>-7.2199732306263503E-2</v>
       </c>
       <c r="G64" s="21">
-        <f>SUM(C64,D64)</f>
+        <f t="shared" si="2"/>
         <v>93550</v>
       </c>
     </row>
@@ -12370,15 +12371,15 @@
         <v>33554</v>
       </c>
       <c r="E65" s="14">
-        <f>1-C65/D65</f>
+        <f t="shared" si="0"/>
         <v>-0.64633128688084884</v>
       </c>
       <c r="F65" s="20">
-        <f>E65*13%</f>
+        <f t="shared" si="1"/>
         <v>-8.4023067294510353E-2</v>
       </c>
       <c r="G65" s="21">
-        <f>SUM(C65,D65)</f>
+        <f t="shared" si="2"/>
         <v>88795</v>
       </c>
     </row>
@@ -12396,15 +12397,15 @@
         <v>38052</v>
       </c>
       <c r="E66" s="14">
-        <f>1-C66/D66</f>
+        <f t="shared" si="0"/>
         <v>-0.67654788184589498</v>
       </c>
       <c r="F66" s="20">
-        <f>E66*13%</f>
+        <f t="shared" si="1"/>
         <v>-8.7951224639966352E-2</v>
       </c>
       <c r="G66" s="21">
-        <f>SUM(C66,D66)</f>
+        <f t="shared" si="2"/>
         <v>101848</v>
       </c>
     </row>
@@ -12422,15 +12423,15 @@
         <v>30140</v>
       </c>
       <c r="E67" s="14">
-        <f>1-C67/D67</f>
+        <f t="shared" ref="E67:E130" si="3">1-C67/D67</f>
         <v>-0.7128069011280691</v>
       </c>
       <c r="F67" s="20">
-        <f>E67*13%</f>
+        <f t="shared" ref="F67:F130" si="4">E67*13%</f>
         <v>-9.2664897146648981E-2</v>
       </c>
       <c r="G67" s="21">
-        <f>SUM(C67,D67)</f>
+        <f t="shared" ref="G67:G130" si="5">SUM(C67,D67)</f>
         <v>81764</v>
       </c>
     </row>
@@ -12448,15 +12449,15 @@
         <v>37051</v>
       </c>
       <c r="E68" s="14">
-        <f>1-C68/D68</f>
+        <f t="shared" si="3"/>
         <v>-0.80397290221586459</v>
       </c>
       <c r="F68" s="20">
-        <f>E68*13%</f>
+        <f t="shared" si="4"/>
         <v>-0.1045164772880624</v>
       </c>
       <c r="G68" s="21">
-        <f>SUM(C68,D68)</f>
+        <f t="shared" si="5"/>
         <v>103890</v>
       </c>
     </row>
@@ -12474,15 +12475,15 @@
         <v>59560</v>
       </c>
       <c r="E69" s="14">
-        <f>1-C69/D69</f>
+        <f t="shared" si="3"/>
         <v>0.42657824042981862</v>
       </c>
       <c r="F69" s="20">
-        <f>E69*13%</f>
+        <f t="shared" si="4"/>
         <v>5.5455171255876422E-2</v>
       </c>
       <c r="G69" s="21">
-        <f>SUM(C69,D69)</f>
+        <f t="shared" si="5"/>
         <v>93713</v>
       </c>
     </row>
@@ -12500,15 +12501,15 @@
         <v>67185</v>
       </c>
       <c r="E70" s="14">
-        <f>1-C70/D70</f>
+        <f t="shared" si="3"/>
         <v>0.42409764084244994</v>
       </c>
       <c r="F70" s="20">
-        <f>E70*13%</f>
+        <f t="shared" si="4"/>
         <v>5.5132693309518498E-2</v>
       </c>
       <c r="G70" s="21">
-        <f>SUM(C70,D70)</f>
+        <f t="shared" si="5"/>
         <v>105877</v>
       </c>
     </row>
@@ -12526,15 +12527,15 @@
         <v>63973</v>
       </c>
       <c r="E71" s="14">
-        <f>1-C71/D71</f>
+        <f t="shared" si="3"/>
         <v>0.29990777359198417</v>
       </c>
       <c r="F71" s="20">
-        <f>E71*13%</f>
+        <f t="shared" si="4"/>
         <v>3.8988010566957942E-2</v>
       </c>
       <c r="G71" s="21">
-        <f>SUM(C71,D71)</f>
+        <f t="shared" si="5"/>
         <v>108760</v>
       </c>
     </row>
@@ -12552,15 +12553,15 @@
         <v>58538</v>
       </c>
       <c r="E72" s="14">
-        <f>1-C72/D72</f>
+        <f t="shared" si="3"/>
         <v>0.28420854829341624</v>
       </c>
       <c r="F72" s="20">
-        <f>E72*13%</f>
+        <f t="shared" si="4"/>
         <v>3.694711127814411E-2</v>
       </c>
       <c r="G72" s="21">
-        <f>SUM(C72,D72)</f>
+        <f t="shared" si="5"/>
         <v>100439</v>
       </c>
     </row>
@@ -12578,15 +12579,15 @@
         <v>58073</v>
       </c>
       <c r="E73" s="14">
-        <f>1-C73/D73</f>
+        <f t="shared" si="3"/>
         <v>4.5098410621114748E-2</v>
       </c>
       <c r="F73" s="20">
-        <f>E73*13%</f>
+        <f t="shared" si="4"/>
         <v>5.8627933807449172E-3</v>
       </c>
       <c r="G73" s="21">
-        <f>SUM(C73,D73)</f>
+        <f t="shared" si="5"/>
         <v>113527</v>
       </c>
     </row>
@@ -12604,15 +12605,15 @@
         <v>34639</v>
       </c>
       <c r="E74" s="14">
-        <f>1-C74/D74</f>
+        <f t="shared" si="3"/>
         <v>-4.1831461647276136E-2</v>
       </c>
       <c r="F74" s="20">
-        <f>E74*13%</f>
+        <f t="shared" si="4"/>
         <v>-5.4380900141458976E-3</v>
       </c>
       <c r="G74" s="21">
-        <f>SUM(C74,D74)</f>
+        <f t="shared" si="5"/>
         <v>70727</v>
       </c>
     </row>
@@ -12630,15 +12631,15 @@
         <v>54092</v>
       </c>
       <c r="E75" s="14">
-        <f>1-C75/D75</f>
+        <f t="shared" si="3"/>
         <v>-0.21073356503734386</v>
       </c>
       <c r="F75" s="20">
-        <f>E75*13%</f>
+        <f t="shared" si="4"/>
         <v>-2.7395363454854701E-2</v>
       </c>
       <c r="G75" s="21">
-        <f>SUM(C75,D75)</f>
+        <f t="shared" si="5"/>
         <v>119583</v>
       </c>
     </row>
@@ -12656,15 +12657,15 @@
         <v>40612</v>
       </c>
       <c r="E76" s="14">
-        <f>1-C76/D76</f>
+        <f t="shared" si="3"/>
         <v>-0.4310794838963854</v>
       </c>
       <c r="F76" s="20">
-        <f>E76*13%</f>
+        <f t="shared" si="4"/>
         <v>-5.6040332906530106E-2</v>
       </c>
       <c r="G76" s="21">
-        <f>SUM(C76,D76)</f>
+        <f t="shared" si="5"/>
         <v>98731</v>
       </c>
     </row>
@@ -12682,15 +12683,15 @@
         <v>52561</v>
       </c>
       <c r="E77" s="14">
-        <f>1-C77/D77</f>
+        <f t="shared" si="3"/>
         <v>0.41905595403436002</v>
       </c>
       <c r="F77" s="20">
-        <f>E77*13%</f>
+        <f t="shared" si="4"/>
         <v>5.4477274024466803E-2</v>
       </c>
       <c r="G77" s="21">
-        <f>SUM(C77,D77)</f>
+        <f t="shared" si="5"/>
         <v>83096</v>
       </c>
     </row>
@@ -12708,15 +12709,15 @@
         <v>58891</v>
       </c>
       <c r="E78" s="14">
-        <f>1-C78/D78</f>
+        <f t="shared" si="3"/>
         <v>0.35798339304817373</v>
       </c>
       <c r="F78" s="20">
-        <f>E78*13%</f>
+        <f t="shared" si="4"/>
         <v>4.6537841096262585E-2</v>
       </c>
       <c r="G78" s="21">
-        <f>SUM(C78,D78)</f>
+        <f t="shared" si="5"/>
         <v>96700</v>
       </c>
     </row>
@@ -12734,15 +12735,15 @@
         <v>52095</v>
       </c>
       <c r="E79" s="14">
-        <f>1-C79/D79</f>
+        <f t="shared" si="3"/>
         <v>0.33824743257510315</v>
       </c>
       <c r="F79" s="20">
-        <f>E79*13%</f>
+        <f t="shared" si="4"/>
         <v>4.397216623476341E-2</v>
       </c>
       <c r="G79" s="21">
-        <f>SUM(C79,D79)</f>
+        <f t="shared" si="5"/>
         <v>86569</v>
       </c>
     </row>
@@ -12760,15 +12761,15 @@
         <v>59273</v>
       </c>
       <c r="E80" s="14">
-        <f>1-C80/D80</f>
+        <f t="shared" si="3"/>
         <v>0.32336814401160729</v>
       </c>
       <c r="F80" s="20">
-        <f>E80*13%</f>
+        <f t="shared" si="4"/>
         <v>4.2037858721508947E-2</v>
       </c>
       <c r="G80" s="21">
-        <f>SUM(C80,D80)</f>
+        <f t="shared" si="5"/>
         <v>99379</v>
       </c>
     </row>
@@ -12786,15 +12787,15 @@
         <v>65309</v>
       </c>
       <c r="E81" s="14">
-        <f>1-C81/D81</f>
+        <f t="shared" si="3"/>
         <v>0.32058368678130122</v>
       </c>
       <c r="F81" s="20">
-        <f>E81*13%</f>
+        <f t="shared" si="4"/>
         <v>4.1675879281569163E-2</v>
       </c>
       <c r="G81" s="21">
-        <f>SUM(C81,D81)</f>
+        <f t="shared" si="5"/>
         <v>109681</v>
       </c>
     </row>
@@ -12812,15 +12813,15 @@
         <v>67067</v>
       </c>
       <c r="E82" s="14">
-        <f>1-C82/D82</f>
+        <f t="shared" si="3"/>
         <v>0.31757794444361609</v>
       </c>
       <c r="F82" s="20">
-        <f>E82*13%</f>
+        <f t="shared" si="4"/>
         <v>4.128513277767009E-2</v>
       </c>
       <c r="G82" s="21">
-        <f>SUM(C82,D82)</f>
+        <f t="shared" si="5"/>
         <v>112835</v>
       </c>
     </row>
@@ -12838,15 +12839,15 @@
         <v>46597</v>
       </c>
       <c r="E83" s="14">
-        <f>1-C83/D83</f>
+        <f t="shared" si="3"/>
         <v>0.31652252290920013</v>
       </c>
       <c r="F83" s="20">
-        <f>E83*13%</f>
+        <f t="shared" si="4"/>
         <v>4.1147927978196018E-2</v>
       </c>
       <c r="G83" s="21">
-        <f>SUM(C83,D83)</f>
+        <f t="shared" si="5"/>
         <v>78445</v>
       </c>
     </row>
@@ -12864,15 +12865,15 @@
         <v>64734</v>
       </c>
       <c r="E84" s="14">
-        <f>1-C84/D84</f>
+        <f t="shared" si="3"/>
         <v>0.24651651373312322</v>
       </c>
       <c r="F84" s="20">
-        <f>E84*13%</f>
+        <f t="shared" si="4"/>
         <v>3.204714678530602E-2</v>
       </c>
       <c r="G84" s="21">
-        <f>SUM(C84,D84)</f>
+        <f t="shared" si="5"/>
         <v>113510</v>
       </c>
     </row>
@@ -12890,15 +12891,15 @@
         <v>47314</v>
       </c>
       <c r="E85" s="14">
-        <f>1-C85/D85</f>
+        <f t="shared" si="3"/>
         <v>0.19507968043285284</v>
       </c>
       <c r="F85" s="20">
-        <f>E85*13%</f>
+        <f t="shared" si="4"/>
         <v>2.5360358456270871E-2</v>
       </c>
       <c r="G85" s="21">
-        <f>SUM(C85,D85)</f>
+        <f t="shared" si="5"/>
         <v>85398</v>
       </c>
     </row>
@@ -12916,15 +12917,15 @@
         <v>47604</v>
       </c>
       <c r="E86" s="14">
-        <f>1-C86/D86</f>
+        <f t="shared" si="3"/>
         <v>9.4109738677422117E-2</v>
       </c>
       <c r="F86" s="20">
-        <f>E86*13%</f>
+        <f t="shared" si="4"/>
         <v>1.2234266028064876E-2</v>
       </c>
       <c r="G86" s="21">
-        <f>SUM(C86,D86)</f>
+        <f t="shared" si="5"/>
         <v>90728</v>
       </c>
     </row>
@@ -12942,15 +12943,15 @@
         <v>63524</v>
       </c>
       <c r="E87" s="14">
-        <f>1-C87/D87</f>
+        <f t="shared" si="3"/>
         <v>7.3295132548328201E-2</v>
       </c>
       <c r="F87" s="20">
-        <f>E87*13%</f>
+        <f t="shared" si="4"/>
         <v>9.528367231282666E-3</v>
       </c>
       <c r="G87" s="21">
-        <f>SUM(C87,D87)</f>
+        <f t="shared" si="5"/>
         <v>122392</v>
       </c>
     </row>
@@ -12968,15 +12969,15 @@
         <v>58731</v>
       </c>
       <c r="E88" s="14">
-        <f>1-C88/D88</f>
+        <f t="shared" si="3"/>
         <v>7.0644123205802711E-2</v>
       </c>
       <c r="F88" s="20">
-        <f>E88*13%</f>
+        <f t="shared" si="4"/>
         <v>9.1837360167543527E-3</v>
       </c>
       <c r="G88" s="21">
-        <f>SUM(C88,D88)</f>
+        <f t="shared" si="5"/>
         <v>113313</v>
       </c>
     </row>
@@ -12994,15 +12995,15 @@
         <v>35089</v>
       </c>
       <c r="E89" s="14">
-        <f>1-C89/D89</f>
+        <f t="shared" si="3"/>
         <v>6.7371540938755747E-2</v>
       </c>
       <c r="F89" s="20">
-        <f>E89*13%</f>
+        <f t="shared" si="4"/>
         <v>8.7583003220382469E-3</v>
       </c>
       <c r="G89" s="21">
-        <f>SUM(C89,D89)</f>
+        <f t="shared" si="5"/>
         <v>67814</v>
       </c>
     </row>
@@ -13020,15 +13021,15 @@
         <v>48900</v>
       </c>
       <c r="E90" s="14">
-        <f>1-C90/D90</f>
+        <f t="shared" si="3"/>
         <v>2.8629856850715729E-2</v>
       </c>
       <c r="F90" s="20">
-        <f>E90*13%</f>
+        <f t="shared" si="4"/>
         <v>3.7218813905930451E-3</v>
       </c>
       <c r="G90" s="21">
-        <f>SUM(C90,D90)</f>
+        <f t="shared" si="5"/>
         <v>96400</v>
       </c>
     </row>
@@ -13046,15 +13047,15 @@
         <v>48578</v>
       </c>
       <c r="E91" s="14">
-        <f>1-C91/D91</f>
+        <f t="shared" si="3"/>
         <v>2.5937667256782926E-2</v>
       </c>
       <c r="F91" s="20">
-        <f>E91*13%</f>
+        <f t="shared" si="4"/>
         <v>3.3718967433817803E-3</v>
       </c>
       <c r="G91" s="21">
-        <f>SUM(C91,D91)</f>
+        <f t="shared" si="5"/>
         <v>95896</v>
       </c>
     </row>
@@ -13072,15 +13073,15 @@
         <v>68264</v>
       </c>
       <c r="E92" s="14">
-        <f>1-C92/D92</f>
+        <f t="shared" si="3"/>
         <v>-1.3682175084964276E-2</v>
       </c>
       <c r="F92" s="20">
-        <f>E92*13%</f>
+        <f t="shared" si="4"/>
         <v>-1.778682761045356E-3</v>
       </c>
       <c r="G92" s="21">
-        <f>SUM(C92,D92)</f>
+        <f t="shared" si="5"/>
         <v>137462</v>
       </c>
     </row>
@@ -13098,15 +13099,15 @@
         <v>31873</v>
       </c>
       <c r="E93" s="14">
-        <f>1-C93/D93</f>
+        <f t="shared" si="3"/>
         <v>-3.8308286010102499E-2</v>
       </c>
       <c r="F93" s="20">
-        <f>E93*13%</f>
+        <f t="shared" si="4"/>
         <v>-4.9800771813133249E-3</v>
       </c>
       <c r="G93" s="21">
-        <f>SUM(C93,D93)</f>
+        <f t="shared" si="5"/>
         <v>64967</v>
       </c>
     </row>
@@ -13124,15 +13125,15 @@
         <v>39790</v>
       </c>
       <c r="E94" s="14">
-        <f>1-C94/D94</f>
+        <f t="shared" si="3"/>
         <v>-6.5091731590851909E-2</v>
       </c>
       <c r="F94" s="20">
-        <f>E94*13%</f>
+        <f t="shared" si="4"/>
         <v>-8.4619251068107481E-3</v>
       </c>
       <c r="G94" s="21">
-        <f>SUM(C94,D94)</f>
+        <f t="shared" si="5"/>
         <v>82170</v>
       </c>
     </row>
@@ -13150,15 +13151,15 @@
         <v>41507</v>
       </c>
       <c r="E95" s="14">
-        <f>1-C95/D95</f>
+        <f t="shared" si="3"/>
         <v>-0.11174018840195621</v>
       </c>
       <c r="F95" s="20">
-        <f>E95*13%</f>
+        <f t="shared" si="4"/>
         <v>-1.4526224492254308E-2</v>
       </c>
       <c r="G95" s="21">
-        <f>SUM(C95,D95)</f>
+        <f t="shared" si="5"/>
         <v>87652</v>
       </c>
     </row>
@@ -13176,15 +13177,15 @@
         <v>61604</v>
       </c>
       <c r="E96" s="14">
-        <f>1-C96/D96</f>
+        <f t="shared" si="3"/>
         <v>-0.11466787870917483</v>
       </c>
       <c r="F96" s="20">
-        <f>E96*13%</f>
+        <f t="shared" si="4"/>
         <v>-1.4906824232192728E-2</v>
       </c>
       <c r="G96" s="21">
-        <f>SUM(C96,D96)</f>
+        <f t="shared" si="5"/>
         <v>130272</v>
       </c>
     </row>
@@ -13202,15 +13203,15 @@
         <v>59326</v>
       </c>
       <c r="E97" s="14">
-        <f>1-C97/D97</f>
+        <f t="shared" si="3"/>
         <v>-0.17245389879648054</v>
       </c>
       <c r="F97" s="20">
-        <f>E97*13%</f>
+        <f t="shared" si="4"/>
         <v>-2.241900684354247E-2</v>
       </c>
       <c r="G97" s="21">
-        <f>SUM(C97,D97)</f>
+        <f t="shared" si="5"/>
         <v>128883</v>
       </c>
     </row>
@@ -13228,15 +13229,15 @@
         <v>50451</v>
       </c>
       <c r="E98" s="14">
-        <f>1-C98/D98</f>
+        <f t="shared" si="3"/>
         <v>-0.19730035083546404</v>
       </c>
       <c r="F98" s="20">
-        <f>E98*13%</f>
+        <f t="shared" si="4"/>
         <v>-2.5649045608610328E-2</v>
       </c>
       <c r="G98" s="21">
-        <f>SUM(C98,D98)</f>
+        <f t="shared" si="5"/>
         <v>110856</v>
       </c>
     </row>
@@ -13254,15 +13255,15 @@
         <v>42186</v>
       </c>
       <c r="E99" s="14">
-        <f>1-C99/D99</f>
+        <f t="shared" si="3"/>
         <v>-0.24510501114113681</v>
       </c>
       <c r="F99" s="20">
-        <f>E99*13%</f>
+        <f t="shared" si="4"/>
         <v>-3.1863651448347789E-2</v>
       </c>
       <c r="G99" s="21">
-        <f>SUM(C99,D99)</f>
+        <f t="shared" si="5"/>
         <v>94712</v>
       </c>
     </row>
@@ -13280,15 +13281,15 @@
         <v>44112</v>
       </c>
       <c r="E100" s="14">
-        <f>1-C100/D100</f>
+        <f t="shared" si="3"/>
         <v>-0.28958106637649617</v>
       </c>
       <c r="F100" s="20">
-        <f>E100*13%</f>
+        <f t="shared" si="4"/>
         <v>-3.76455386289445E-2</v>
       </c>
       <c r="G100" s="21">
-        <f>SUM(C100,D100)</f>
+        <f t="shared" si="5"/>
         <v>100998</v>
       </c>
     </row>
@@ -13306,15 +13307,15 @@
         <v>44313</v>
       </c>
       <c r="E101" s="14">
-        <f>1-C101/D101</f>
+        <f t="shared" si="3"/>
         <v>-0.33355900074470246</v>
       </c>
       <c r="F101" s="20">
-        <f>E101*13%</f>
+        <f t="shared" si="4"/>
         <v>-4.3362670096811322E-2</v>
       </c>
       <c r="G101" s="21">
-        <f>SUM(C101,D101)</f>
+        <f t="shared" si="5"/>
         <v>103407</v>
       </c>
     </row>
@@ -13332,15 +13333,15 @@
         <v>44143</v>
       </c>
       <c r="E102" s="14">
-        <f>1-C102/D102</f>
+        <f t="shared" si="3"/>
         <v>-0.40796955349659059</v>
       </c>
       <c r="F102" s="20">
-        <f>E102*13%</f>
+        <f t="shared" si="4"/>
         <v>-5.303604195455678E-2</v>
       </c>
       <c r="G102" s="21">
-        <f>SUM(C102,D102)</f>
+        <f t="shared" si="5"/>
         <v>106295</v>
       </c>
     </row>
@@ -13358,15 +13359,15 @@
         <v>43873</v>
       </c>
       <c r="E103" s="14">
-        <f>1-C103/D103</f>
+        <f t="shared" si="3"/>
         <v>-0.48551500923118995</v>
       </c>
       <c r="F103" s="20">
-        <f>E103*13%</f>
+        <f t="shared" si="4"/>
         <v>-6.31169512000547E-2</v>
       </c>
       <c r="G103" s="21">
-        <f>SUM(C103,D103)</f>
+        <f t="shared" si="5"/>
         <v>109047</v>
       </c>
     </row>
@@ -13384,15 +13385,15 @@
         <v>34311</v>
       </c>
       <c r="E104" s="14">
-        <f>1-C104/D104</f>
+        <f t="shared" si="3"/>
         <v>-0.49800355571099653</v>
       </c>
       <c r="F104" s="20">
-        <f>E104*13%</f>
+        <f t="shared" si="4"/>
         <v>-6.4740462242429547E-2</v>
       </c>
       <c r="G104" s="21">
-        <f>SUM(C104,D104)</f>
+        <f t="shared" si="5"/>
         <v>85709</v>
       </c>
     </row>
@@ -13410,15 +13411,15 @@
         <v>39122</v>
       </c>
       <c r="E105" s="14">
-        <f>1-C105/D105</f>
+        <f t="shared" si="3"/>
         <v>-0.50646694954245697</v>
       </c>
       <c r="F105" s="20">
-        <f>E105*13%</f>
+        <f t="shared" si="4"/>
         <v>-6.5840703440519413E-2</v>
       </c>
       <c r="G105" s="21">
-        <f>SUM(C105,D105)</f>
+        <f t="shared" si="5"/>
         <v>98058</v>
       </c>
     </row>
@@ -13436,15 +13437,15 @@
         <v>42202</v>
       </c>
       <c r="E106" s="14">
-        <f>1-C106/D106</f>
+        <f t="shared" si="3"/>
         <v>-0.56177432349177758</v>
       </c>
       <c r="F106" s="20">
-        <f>E106*13%</f>
+        <f t="shared" si="4"/>
         <v>-7.3030662053931092E-2</v>
       </c>
       <c r="G106" s="21">
-        <f>SUM(C106,D106)</f>
+        <f t="shared" si="5"/>
         <v>108112</v>
       </c>
     </row>
@@ -13462,15 +13463,15 @@
         <v>34131</v>
       </c>
       <c r="E107" s="14">
-        <f>1-C107/D107</f>
+        <f t="shared" si="3"/>
         <v>-0.65752541677653742</v>
       </c>
       <c r="F107" s="20">
-        <f>E107*13%</f>
+        <f t="shared" si="4"/>
         <v>-8.5478304180949871E-2</v>
       </c>
       <c r="G107" s="21">
-        <f>SUM(C107,D107)</f>
+        <f t="shared" si="5"/>
         <v>90704</v>
       </c>
     </row>
@@ -13488,15 +13489,15 @@
         <v>30247</v>
       </c>
       <c r="E108" s="14">
-        <f>1-C108/D108</f>
+        <f t="shared" si="3"/>
         <v>-0.82983436373855257</v>
       </c>
       <c r="F108" s="20">
-        <f>E108*13%</f>
+        <f t="shared" si="4"/>
         <v>-0.10787846728601184</v>
       </c>
       <c r="G108" s="21">
-        <f>SUM(C108,D108)</f>
+        <f t="shared" si="5"/>
         <v>85594</v>
       </c>
     </row>
@@ -13514,15 +13515,15 @@
         <v>69133</v>
       </c>
       <c r="E109" s="14">
-        <f>1-C109/D109</f>
+        <f t="shared" si="3"/>
         <v>0.43996354852241337</v>
       </c>
       <c r="F109" s="20">
-        <f>E109*13%</f>
+        <f t="shared" si="4"/>
         <v>5.719526130791374E-2</v>
       </c>
       <c r="G109" s="21">
-        <f>SUM(C109,D109)</f>
+        <f t="shared" si="5"/>
         <v>107850</v>
       </c>
     </row>
@@ -13540,15 +13541,15 @@
         <v>68464</v>
       </c>
       <c r="E110" s="14">
-        <f>1-C110/D110</f>
+        <f t="shared" si="3"/>
         <v>0.41408623510165932</v>
       </c>
       <c r="F110" s="20">
-        <f>E110*13%</f>
+        <f t="shared" si="4"/>
         <v>5.3831210563215715E-2</v>
       </c>
       <c r="G110" s="21">
-        <f>SUM(C110,D110)</f>
+        <f t="shared" si="5"/>
         <v>108578</v>
       </c>
     </row>
@@ -13566,15 +13567,15 @@
         <v>56472</v>
       </c>
       <c r="E111" s="14">
-        <f>1-C111/D111</f>
+        <f t="shared" si="3"/>
         <v>0.25807479813004675</v>
       </c>
       <c r="F111" s="20">
-        <f>E111*13%</f>
+        <f t="shared" si="4"/>
         <v>3.3549723756906076E-2</v>
       </c>
       <c r="G111" s="21">
-        <f>SUM(C111,D111)</f>
+        <f t="shared" si="5"/>
         <v>98370</v>
       </c>
     </row>
@@ -13592,15 +13593,15 @@
         <v>60174</v>
       </c>
       <c r="E112" s="14">
-        <f>1-C112/D112</f>
+        <f t="shared" si="3"/>
         <v>0.24447435769601489</v>
       </c>
       <c r="F112" s="20">
-        <f>E112*13%</f>
+        <f t="shared" si="4"/>
         <v>3.1781666500481934E-2</v>
       </c>
       <c r="G112" s="21">
-        <f>SUM(C112,D112)</f>
+        <f t="shared" si="5"/>
         <v>105637</v>
       </c>
     </row>
@@ -13618,15 +13619,15 @@
         <v>45575</v>
       </c>
       <c r="E113" s="14">
-        <f>1-C113/D113</f>
+        <f t="shared" si="3"/>
         <v>0.23677454744925941</v>
       </c>
       <c r="F113" s="20">
-        <f>E113*13%</f>
+        <f t="shared" si="4"/>
         <v>3.0780691168403724E-2</v>
       </c>
       <c r="G113" s="21">
-        <f>SUM(C113,D113)</f>
+        <f t="shared" si="5"/>
         <v>80359</v>
       </c>
     </row>
@@ -13644,15 +13645,15 @@
         <v>54991</v>
       </c>
       <c r="E114" s="14">
-        <f>1-C114/D114</f>
+        <f t="shared" si="3"/>
         <v>0.23527486315942614</v>
       </c>
       <c r="F114" s="20">
-        <f>E114*13%</f>
+        <f t="shared" si="4"/>
         <v>3.05857322107254E-2</v>
       </c>
       <c r="G114" s="21">
-        <f>SUM(C114,D114)</f>
+        <f t="shared" si="5"/>
         <v>97044</v>
       </c>
     </row>
@@ -13670,15 +13671,15 @@
         <v>68711</v>
       </c>
       <c r="E115" s="14">
-        <f>1-C115/D115</f>
+        <f t="shared" si="3"/>
         <v>0.15457495888576789</v>
       </c>
       <c r="F115" s="20">
-        <f>E115*13%</f>
+        <f t="shared" si="4"/>
         <v>2.0094744655149824E-2</v>
       </c>
       <c r="G115" s="21">
-        <f>SUM(C115,D115)</f>
+        <f t="shared" si="5"/>
         <v>126801</v>
       </c>
     </row>
@@ -13696,15 +13697,15 @@
         <v>56719</v>
       </c>
       <c r="E116" s="14">
-        <f>1-C116/D116</f>
+        <f t="shared" si="3"/>
         <v>0.15084892187803034</v>
       </c>
       <c r="F116" s="20">
-        <f>E116*13%</f>
+        <f t="shared" si="4"/>
         <v>1.9610359844143947E-2</v>
       </c>
       <c r="G116" s="21">
-        <f>SUM(C116,D116)</f>
+        <f t="shared" si="5"/>
         <v>104882</v>
       </c>
     </row>
@@ -13722,15 +13723,15 @@
         <v>39707</v>
       </c>
       <c r="E117" s="14">
-        <f>1-C117/D117</f>
+        <f t="shared" si="3"/>
         <v>3.0271740499156374E-2</v>
       </c>
       <c r="F117" s="20">
-        <f>E117*13%</f>
+        <f t="shared" si="4"/>
         <v>3.9353262648903287E-3</v>
       </c>
       <c r="G117" s="21">
-        <f>SUM(C117,D117)</f>
+        <f t="shared" si="5"/>
         <v>78212</v>
       </c>
     </row>
@@ -13748,15 +13749,15 @@
         <v>57335</v>
       </c>
       <c r="E118" s="14">
-        <f>1-C118/D118</f>
+        <f t="shared" si="3"/>
         <v>-3.4219935466992313E-2</v>
       </c>
       <c r="F118" s="20">
-        <f>E118*13%</f>
+        <f t="shared" si="4"/>
         <v>-4.4485916107090007E-3</v>
       </c>
       <c r="G118" s="21">
-        <f>SUM(C118,D118)</f>
+        <f t="shared" si="5"/>
         <v>116632</v>
       </c>
     </row>
@@ -13774,15 +13775,15 @@
         <v>48261</v>
       </c>
       <c r="E119" s="14">
-        <f>1-C119/D119</f>
+        <f t="shared" si="3"/>
         <v>-6.1312446903296625E-2</v>
       </c>
       <c r="F119" s="20">
-        <f>E119*13%</f>
+        <f t="shared" si="4"/>
         <v>-7.9706180974285622E-3</v>
       </c>
       <c r="G119" s="21">
-        <f>SUM(C119,D119)</f>
+        <f t="shared" si="5"/>
         <v>99481</v>
       </c>
     </row>
@@ -13800,15 +13801,15 @@
         <v>46295</v>
       </c>
       <c r="E120" s="14">
-        <f>1-C120/D120</f>
+        <f t="shared" si="3"/>
         <v>-7.9727832379306696E-2</v>
       </c>
       <c r="F120" s="20">
-        <f>E120*13%</f>
+        <f t="shared" si="4"/>
         <v>-1.0364618209309871E-2</v>
       </c>
       <c r="G120" s="21">
-        <f>SUM(C120,D120)</f>
+        <f t="shared" si="5"/>
         <v>96281</v>
       </c>
     </row>
@@ -13826,15 +13827,15 @@
         <v>62399</v>
       </c>
       <c r="E121" s="14">
-        <f>1-C121/D121</f>
+        <f t="shared" si="3"/>
         <v>-0.10637990993445401</v>
       </c>
       <c r="F121" s="20">
-        <f>E121*13%</f>
+        <f t="shared" si="4"/>
         <v>-1.3829388291479021E-2</v>
       </c>
       <c r="G121" s="21">
-        <f>SUM(C121,D121)</f>
+        <f t="shared" si="5"/>
         <v>131436</v>
       </c>
     </row>
@@ -13852,15 +13853,15 @@
         <v>43599</v>
       </c>
       <c r="E122" s="14">
-        <f>1-C122/D122</f>
+        <f t="shared" si="3"/>
         <v>-0.17316910938324281</v>
       </c>
       <c r="F122" s="20">
-        <f>E122*13%</f>
+        <f t="shared" si="4"/>
         <v>-2.2511984219821566E-2</v>
       </c>
       <c r="G122" s="21">
-        <f>SUM(C122,D122)</f>
+        <f t="shared" si="5"/>
         <v>94748</v>
       </c>
     </row>
@@ -13878,15 +13879,15 @@
         <v>32667</v>
       </c>
       <c r="E123" s="14">
-        <f>1-C123/D123</f>
+        <f t="shared" si="3"/>
         <v>-0.32589463372822736</v>
       </c>
       <c r="F123" s="20">
-        <f>E123*13%</f>
+        <f t="shared" si="4"/>
         <v>-4.2366302384669555E-2</v>
       </c>
       <c r="G123" s="21">
-        <f>SUM(C123,D123)</f>
+        <f t="shared" si="5"/>
         <v>75980</v>
       </c>
     </row>
@@ -13904,15 +13905,15 @@
         <v>30784</v>
       </c>
       <c r="E124" s="14">
-        <f>1-C124/D124</f>
+        <f t="shared" si="3"/>
         <v>-0.92512344074844077</v>
       </c>
       <c r="F124" s="20">
-        <f>E124*13%</f>
+        <f t="shared" si="4"/>
         <v>-0.1202660472972973</v>
       </c>
       <c r="G124" s="21">
-        <f>SUM(C124,D124)</f>
+        <f t="shared" si="5"/>
         <v>90047</v>
       </c>
     </row>
@@ -13930,15 +13931,15 @@
         <v>55563</v>
       </c>
       <c r="E125" s="14">
-        <f>1-C125/D125</f>
+        <f t="shared" si="3"/>
         <v>0.45697676511347485</v>
       </c>
       <c r="F125" s="20">
-        <f>E125*13%</f>
+        <f t="shared" si="4"/>
         <v>5.9406979464751729E-2</v>
       </c>
       <c r="G125" s="21">
-        <f>SUM(C125,D125)</f>
+        <f t="shared" si="5"/>
         <v>85735</v>
       </c>
     </row>
@@ -13956,15 +13957,15 @@
         <v>64713</v>
       </c>
       <c r="E126" s="14">
-        <f>1-C126/D126</f>
+        <f t="shared" si="3"/>
         <v>0.4068579728957088</v>
       </c>
       <c r="F126" s="20">
-        <f>E126*13%</f>
+        <f t="shared" si="4"/>
         <v>5.2891536476442146E-2</v>
       </c>
       <c r="G126" s="21">
-        <f>SUM(C126,D126)</f>
+        <f t="shared" si="5"/>
         <v>103097</v>
       </c>
     </row>
@@ -13982,15 +13983,15 @@
         <v>55282</v>
       </c>
       <c r="E127" s="14">
-        <f>1-C127/D127</f>
+        <f t="shared" si="3"/>
         <v>0.34734633334539267</v>
       </c>
       <c r="F127" s="20">
-        <f>E127*13%</f>
+        <f t="shared" si="4"/>
         <v>4.5155023334901047E-2</v>
       </c>
       <c r="G127" s="21">
-        <f>SUM(C127,D127)</f>
+        <f t="shared" si="5"/>
         <v>91362</v>
       </c>
     </row>
@@ -14008,15 +14009,15 @@
         <v>61683</v>
       </c>
       <c r="E128" s="14">
-        <f>1-C128/D128</f>
+        <f t="shared" si="3"/>
         <v>0.25524050386654351</v>
       </c>
       <c r="F128" s="20">
-        <f>E128*13%</f>
+        <f t="shared" si="4"/>
         <v>3.3181265502650659E-2</v>
       </c>
       <c r="G128" s="21">
-        <f>SUM(C128,D128)</f>
+        <f t="shared" si="5"/>
         <v>107622</v>
       </c>
     </row>
@@ -14034,15 +14035,15 @@
         <v>67359</v>
       </c>
       <c r="E129" s="14">
-        <f>1-C129/D129</f>
+        <f t="shared" si="3"/>
         <v>0.25191882302290713</v>
       </c>
       <c r="F129" s="20">
-        <f>E129*13%</f>
+        <f t="shared" si="4"/>
         <v>3.2749446992977931E-2</v>
       </c>
       <c r="G129" s="21">
-        <f>SUM(C129,D129)</f>
+        <f t="shared" si="5"/>
         <v>117749</v>
       </c>
     </row>
@@ -14060,15 +14061,15 @@
         <v>60279</v>
       </c>
       <c r="E130" s="14">
-        <f>1-C130/D130</f>
+        <f t="shared" si="3"/>
         <v>0.21106853132931869</v>
       </c>
       <c r="F130" s="20">
-        <f>E130*13%</f>
+        <f t="shared" si="4"/>
         <v>2.7438909072811431E-2</v>
       </c>
       <c r="G130" s="21">
-        <f>SUM(C130,D130)</f>
+        <f t="shared" si="5"/>
         <v>107835</v>
       </c>
     </row>
@@ -14086,15 +14087,15 @@
         <v>69841</v>
       </c>
       <c r="E131" s="14">
-        <f>1-C131/D131</f>
+        <f t="shared" ref="E131:E194" si="6">1-C131/D131</f>
         <v>0.17651522744519699</v>
       </c>
       <c r="F131" s="20">
-        <f>E131*13%</f>
+        <f t="shared" ref="F131:F194" si="7">E131*13%</f>
         <v>2.294697956787561E-2</v>
       </c>
       <c r="G131" s="21">
-        <f>SUM(C131,D131)</f>
+        <f t="shared" ref="G131:G194" si="8">SUM(C131,D131)</f>
         <v>127354</v>
       </c>
     </row>
@@ -14112,15 +14113,15 @@
         <v>41710</v>
       </c>
       <c r="E132" s="14">
-        <f>1-C132/D132</f>
+        <f t="shared" si="6"/>
         <v>0.14833373291776553</v>
       </c>
       <c r="F132" s="20">
-        <f>E132*13%</f>
+        <f t="shared" si="7"/>
         <v>1.928338527930952E-2</v>
       </c>
       <c r="G132" s="21">
-        <f>SUM(C132,D132)</f>
+        <f t="shared" si="8"/>
         <v>77233</v>
       </c>
     </row>
@@ -14138,15 +14139,15 @@
         <v>65000</v>
       </c>
       <c r="E133" s="14">
-        <f>1-C133/D133</f>
+        <f t="shared" si="6"/>
         <v>0.11569230769230765</v>
       </c>
       <c r="F133" s="20">
-        <f>E133*13%</f>
+        <f t="shared" si="7"/>
         <v>1.5039999999999994E-2</v>
       </c>
       <c r="G133" s="21">
-        <f>SUM(C133,D133)</f>
+        <f t="shared" si="8"/>
         <v>122480</v>
       </c>
     </row>
@@ -14164,15 +14165,15 @@
         <v>38067</v>
       </c>
       <c r="E134" s="14">
-        <f>1-C134/D134</f>
+        <f t="shared" si="6"/>
         <v>6.6330417421914034E-2</v>
       </c>
       <c r="F134" s="20">
-        <f>E134*13%</f>
+        <f t="shared" si="7"/>
         <v>8.6229542648488255E-3</v>
       </c>
       <c r="G134" s="21">
-        <f>SUM(C134,D134)</f>
+        <f t="shared" si="8"/>
         <v>73609</v>
       </c>
     </row>
@@ -14190,15 +14191,15 @@
         <v>59659</v>
       </c>
       <c r="E135" s="14">
-        <f>1-C135/D135</f>
+        <f t="shared" si="6"/>
         <v>-3.2819859535023976E-2</v>
       </c>
       <c r="F135" s="20">
-        <f>E135*13%</f>
+        <f t="shared" si="7"/>
         <v>-4.2665817395531169E-3</v>
       </c>
       <c r="G135" s="21">
-        <f>SUM(C135,D135)</f>
+        <f t="shared" si="8"/>
         <v>121276</v>
       </c>
     </row>
@@ -14216,15 +14217,15 @@
         <v>49413</v>
       </c>
       <c r="E136" s="14">
-        <f>1-C136/D136</f>
+        <f t="shared" si="6"/>
         <v>-3.8046667880921925E-2</v>
       </c>
       <c r="F136" s="20">
-        <f>E136*13%</f>
+        <f t="shared" si="7"/>
         <v>-4.9460668245198507E-3</v>
       </c>
       <c r="G136" s="21">
-        <f>SUM(C136,D136)</f>
+        <f t="shared" si="8"/>
         <v>100706</v>
       </c>
     </row>
@@ -14242,15 +14243,15 @@
         <v>33012</v>
       </c>
       <c r="E137" s="14">
-        <f>1-C137/D137</f>
+        <f t="shared" si="6"/>
         <v>-5.4192414879437711E-2</v>
       </c>
       <c r="F137" s="20">
-        <f>E137*13%</f>
+        <f t="shared" si="7"/>
         <v>-7.0450139343269024E-3</v>
       </c>
       <c r="G137" s="21">
-        <f>SUM(C137,D137)</f>
+        <f t="shared" si="8"/>
         <v>67813</v>
       </c>
     </row>
@@ -14268,15 +14269,15 @@
         <v>34036</v>
       </c>
       <c r="E138" s="14">
-        <f>1-C138/D138</f>
+        <f t="shared" si="6"/>
         <v>-6.3227171230461954E-2</v>
       </c>
       <c r="F138" s="20">
-        <f>E138*13%</f>
+        <f t="shared" si="7"/>
         <v>-8.2195322599600551E-3</v>
       </c>
       <c r="G138" s="21">
-        <f>SUM(C138,D138)</f>
+        <f t="shared" si="8"/>
         <v>70224</v>
       </c>
     </row>
@@ -14294,15 +14295,15 @@
         <v>58759</v>
       </c>
       <c r="E139" s="14">
-        <f>1-C139/D139</f>
+        <f t="shared" si="6"/>
         <v>-0.11169352779999664</v>
       </c>
       <c r="F139" s="20">
-        <f>E139*13%</f>
+        <f t="shared" si="7"/>
         <v>-1.4520158613999563E-2</v>
       </c>
       <c r="G139" s="21">
-        <f>SUM(C139,D139)</f>
+        <f t="shared" si="8"/>
         <v>124081</v>
       </c>
     </row>
@@ -14320,15 +14321,15 @@
         <v>58013</v>
       </c>
       <c r="E140" s="14">
-        <f>1-C140/D140</f>
+        <f t="shared" si="6"/>
         <v>-0.14441590677951499</v>
       </c>
       <c r="F140" s="20">
-        <f>E140*13%</f>
+        <f t="shared" si="7"/>
         <v>-1.877406788133695E-2</v>
       </c>
       <c r="G140" s="21">
-        <f>SUM(C140,D140)</f>
+        <f t="shared" si="8"/>
         <v>124404</v>
       </c>
     </row>
@@ -14346,15 +14347,15 @@
         <v>32852</v>
       </c>
       <c r="E141" s="14">
-        <f>1-C141/D141</f>
+        <f t="shared" si="6"/>
         <v>-0.18674662121027641</v>
       </c>
       <c r="F141" s="20">
-        <f>E141*13%</f>
+        <f t="shared" si="7"/>
         <v>-2.4277060757335933E-2</v>
       </c>
       <c r="G141" s="21">
-        <f>SUM(C141,D141)</f>
+        <f t="shared" si="8"/>
         <v>71839</v>
       </c>
     </row>
@@ -14372,15 +14373,15 @@
         <v>38579</v>
       </c>
       <c r="E142" s="14">
-        <f>1-C142/D142</f>
+        <f t="shared" si="6"/>
         <v>-0.20617434355478359</v>
       </c>
       <c r="F142" s="20">
-        <f>E142*13%</f>
+        <f t="shared" si="7"/>
         <v>-2.6802664662121868E-2</v>
       </c>
       <c r="G142" s="21">
-        <f>SUM(C142,D142)</f>
+        <f t="shared" si="8"/>
         <v>85112</v>
       </c>
     </row>
@@ -14398,15 +14399,15 @@
         <v>45408</v>
       </c>
       <c r="E143" s="14">
-        <f>1-C143/D143</f>
+        <f t="shared" si="6"/>
         <v>-0.23581747709654688</v>
       </c>
       <c r="F143" s="20">
-        <f>E143*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.0656272022551095E-2</v>
       </c>
       <c r="G143" s="21">
-        <f>SUM(C143,D143)</f>
+        <f t="shared" si="8"/>
         <v>101524</v>
       </c>
     </row>
@@ -14424,15 +14425,15 @@
         <v>36778</v>
       </c>
       <c r="E144" s="14">
-        <f>1-C144/D144</f>
+        <f t="shared" si="6"/>
         <v>-0.25452716297786715</v>
       </c>
       <c r="F144" s="20">
-        <f>E144*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.3088531187122731E-2</v>
       </c>
       <c r="G144" s="21">
-        <f>SUM(C144,D144)</f>
+        <f t="shared" si="8"/>
         <v>82917</v>
       </c>
     </row>
@@ -14450,15 +14451,15 @@
         <v>44363</v>
       </c>
       <c r="E145" s="14">
-        <f>1-C145/D145</f>
+        <f t="shared" si="6"/>
         <v>-0.27622117530374402</v>
       </c>
       <c r="F145" s="20">
-        <f>E145*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.5908752789486721E-2</v>
       </c>
       <c r="G145" s="21">
-        <f>SUM(C145,D145)</f>
+        <f t="shared" si="8"/>
         <v>100980</v>
       </c>
     </row>
@@ -14476,15 +14477,15 @@
         <v>42017</v>
       </c>
       <c r="E146" s="14">
-        <f>1-C146/D146</f>
+        <f t="shared" si="6"/>
         <v>-0.29616583763714677</v>
       </c>
       <c r="F146" s="20">
-        <f>E146*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.850155889282908E-2</v>
       </c>
       <c r="G146" s="21">
-        <f>SUM(C146,D146)</f>
+        <f t="shared" si="8"/>
         <v>96478</v>
       </c>
     </row>
@@ -14502,15 +14503,15 @@
         <v>51133</v>
       </c>
       <c r="E147" s="14">
-        <f>1-C147/D147</f>
+        <f t="shared" si="6"/>
         <v>-0.29677507676060477</v>
       </c>
       <c r="F147" s="20">
-        <f>E147*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.8580759978878623E-2</v>
       </c>
       <c r="G147" s="21">
-        <f>SUM(C147,D147)</f>
+        <f t="shared" si="8"/>
         <v>117441</v>
       </c>
     </row>
@@ -14528,15 +14529,15 @@
         <v>38637</v>
       </c>
       <c r="E148" s="14">
-        <f>1-C148/D148</f>
+        <f t="shared" si="6"/>
         <v>-0.41939073944664451</v>
       </c>
       <c r="F148" s="20">
-        <f>E148*13%</f>
+        <f t="shared" si="7"/>
         <v>-5.4520796128063785E-2</v>
       </c>
       <c r="G148" s="21">
-        <f>SUM(C148,D148)</f>
+        <f t="shared" si="8"/>
         <v>93478</v>
       </c>
     </row>
@@ -14554,15 +14555,15 @@
         <v>34697</v>
       </c>
       <c r="E149" s="14">
-        <f>1-C149/D149</f>
+        <f t="shared" si="6"/>
         <v>-0.50422226705478868</v>
       </c>
       <c r="F149" s="20">
-        <f>E149*13%</f>
+        <f t="shared" si="7"/>
         <v>-6.5548894717122524E-2</v>
       </c>
       <c r="G149" s="21">
-        <f>SUM(C149,D149)</f>
+        <f t="shared" si="8"/>
         <v>86889</v>
       </c>
     </row>
@@ -14580,15 +14581,15 @@
         <v>37627</v>
       </c>
       <c r="E150" s="14">
-        <f>1-C150/D150</f>
+        <f t="shared" si="6"/>
         <v>-0.52871608153719407</v>
       </c>
       <c r="F150" s="20">
-        <f>E150*13%</f>
+        <f t="shared" si="7"/>
         <v>-6.8733090599835234E-2</v>
       </c>
       <c r="G150" s="21">
-        <f>SUM(C150,D150)</f>
+        <f t="shared" si="8"/>
         <v>95148</v>
       </c>
     </row>
@@ -14606,15 +14607,15 @@
         <v>38765</v>
       </c>
       <c r="E151" s="14">
-        <f>1-C151/D151</f>
+        <f t="shared" si="6"/>
         <v>-0.58428995227653813</v>
       </c>
       <c r="F151" s="20">
-        <f>E151*13%</f>
+        <f t="shared" si="7"/>
         <v>-7.5957693795949965E-2</v>
       </c>
       <c r="G151" s="21">
-        <f>SUM(C151,D151)</f>
+        <f t="shared" si="8"/>
         <v>100180</v>
       </c>
     </row>
@@ -14632,15 +14633,15 @@
         <v>33528</v>
       </c>
       <c r="E152" s="14">
-        <f>1-C152/D152</f>
+        <f t="shared" si="6"/>
         <v>-0.5971426867096159</v>
       </c>
       <c r="F152" s="20">
-        <f>E152*13%</f>
+        <f t="shared" si="7"/>
         <v>-7.7628549272250075E-2</v>
       </c>
       <c r="G152" s="21">
-        <f>SUM(C152,D152)</f>
+        <f t="shared" si="8"/>
         <v>87077</v>
       </c>
     </row>
@@ -14658,15 +14659,15 @@
         <v>33355</v>
       </c>
       <c r="E153" s="14">
-        <f>1-C153/D153</f>
+        <f t="shared" si="6"/>
         <v>-0.67654024883825503</v>
       </c>
       <c r="F153" s="20">
-        <f>E153*13%</f>
+        <f t="shared" si="7"/>
         <v>-8.7950232348973159E-2</v>
       </c>
       <c r="G153" s="21">
-        <f>SUM(C153,D153)</f>
+        <f t="shared" si="8"/>
         <v>89276</v>
       </c>
     </row>
@@ -14684,15 +14685,15 @@
         <v>38987</v>
       </c>
       <c r="E154" s="14">
-        <f>1-C154/D154</f>
+        <f t="shared" si="6"/>
         <v>-0.67809782748095526</v>
       </c>
       <c r="F154" s="20">
-        <f>E154*13%</f>
+        <f t="shared" si="7"/>
         <v>-8.8152717572524186E-2</v>
       </c>
       <c r="G154" s="21">
-        <f>SUM(C154,D154)</f>
+        <f t="shared" si="8"/>
         <v>104411</v>
       </c>
     </row>
@@ -14710,15 +14711,15 @@
         <v>33109</v>
       </c>
       <c r="E155" s="14">
-        <f>1-C155/D155</f>
+        <f t="shared" si="6"/>
         <v>-0.70331329849889768</v>
       </c>
       <c r="F155" s="20">
-        <f>E155*13%</f>
+        <f t="shared" si="7"/>
         <v>-9.1430728804856698E-2</v>
       </c>
       <c r="G155" s="21">
-        <f>SUM(C155,D155)</f>
+        <f t="shared" si="8"/>
         <v>89504</v>
       </c>
     </row>
@@ -14736,15 +14737,15 @@
         <v>34364</v>
       </c>
       <c r="E156" s="14">
-        <f>1-C156/D156</f>
+        <f t="shared" si="6"/>
         <v>-0.80371900826446274</v>
       </c>
       <c r="F156" s="20">
-        <f>E156*13%</f>
+        <f t="shared" si="7"/>
         <v>-0.10448347107438016</v>
       </c>
       <c r="G156" s="21">
-        <f>SUM(C156,D156)</f>
+        <f t="shared" si="8"/>
         <v>96347</v>
       </c>
     </row>
@@ -14762,15 +14763,15 @@
         <v>68243</v>
       </c>
       <c r="E157" s="14">
-        <f>1-C157/D157</f>
+        <f t="shared" si="6"/>
         <v>-3.4728836657238471E-3</v>
       </c>
       <c r="F157" s="20">
-        <f>E157*13%</f>
+        <f t="shared" si="7"/>
         <v>-4.5147487654410016E-4</v>
       </c>
       <c r="G157" s="21">
-        <f>SUM(C157,D157)</f>
+        <f t="shared" si="8"/>
         <v>136723</v>
       </c>
     </row>
@@ -14788,15 +14789,15 @@
         <v>61932</v>
       </c>
       <c r="E158" s="14">
-        <f>1-C158/D158</f>
+        <f t="shared" si="6"/>
         <v>-4.4597300264806572E-2</v>
       </c>
       <c r="F158" s="20">
-        <f>E158*13%</f>
+        <f t="shared" si="7"/>
         <v>-5.7976490344248547E-3</v>
       </c>
       <c r="G158" s="21">
-        <f>SUM(C158,D158)</f>
+        <f t="shared" si="8"/>
         <v>126626</v>
       </c>
     </row>
@@ -14814,15 +14815,15 @@
         <v>62778</v>
       </c>
       <c r="E159" s="14">
-        <f>1-C159/D159</f>
+        <f t="shared" si="6"/>
         <v>0.47097709388639331</v>
       </c>
       <c r="F159" s="20">
-        <f>E159*13%</f>
+        <f t="shared" si="7"/>
         <v>6.122702220523113E-2</v>
       </c>
       <c r="G159" s="21">
-        <f>SUM(C159,D159)</f>
+        <f t="shared" si="8"/>
         <v>95989</v>
       </c>
     </row>
@@ -14840,15 +14841,15 @@
         <v>67043</v>
       </c>
       <c r="E160" s="14">
-        <f>1-C160/D160</f>
+        <f t="shared" si="6"/>
         <v>0.46687946541771697</v>
       </c>
       <c r="F160" s="20">
-        <f>E160*13%</f>
+        <f t="shared" si="7"/>
         <v>6.0694330504303208E-2</v>
       </c>
       <c r="G160" s="21">
-        <f>SUM(C160,D160)</f>
+        <f t="shared" si="8"/>
         <v>102785</v>
       </c>
     </row>
@@ -14866,15 +14867,15 @@
         <v>58305</v>
       </c>
       <c r="E161" s="14">
-        <f>1-C161/D161</f>
+        <f t="shared" si="6"/>
         <v>0.40133779264214042</v>
       </c>
       <c r="F161" s="20">
-        <f>E161*13%</f>
+        <f t="shared" si="7"/>
         <v>5.2173913043478258E-2</v>
       </c>
       <c r="G161" s="21">
-        <f>SUM(C161,D161)</f>
+        <f t="shared" si="8"/>
         <v>93210</v>
       </c>
     </row>
@@ -14892,15 +14893,15 @@
         <v>64875</v>
       </c>
       <c r="E162" s="14">
-        <f>1-C162/D162</f>
+        <f t="shared" si="6"/>
         <v>0.3897803468208092</v>
       </c>
       <c r="F162" s="20">
-        <f>E162*13%</f>
+        <f t="shared" si="7"/>
         <v>5.0671445086705194E-2</v>
       </c>
       <c r="G162" s="21">
-        <f>SUM(C162,D162)</f>
+        <f t="shared" si="8"/>
         <v>104463</v>
       </c>
     </row>
@@ -14918,15 +14919,15 @@
         <v>57386</v>
       </c>
       <c r="E163" s="14">
-        <f>1-C163/D163</f>
+        <f t="shared" si="6"/>
         <v>0.36151674624472863</v>
       </c>
       <c r="F163" s="20">
-        <f>E163*13%</f>
+        <f t="shared" si="7"/>
         <v>4.6997177011814724E-2</v>
       </c>
       <c r="G163" s="21">
-        <f>SUM(C163,D163)</f>
+        <f t="shared" si="8"/>
         <v>94026</v>
       </c>
     </row>
@@ -14944,15 +14945,15 @@
         <v>49591</v>
       </c>
       <c r="E164" s="14">
-        <f>1-C164/D164</f>
+        <f t="shared" si="6"/>
         <v>0.33504063237280957</v>
       </c>
       <c r="F164" s="20">
-        <f>E164*13%</f>
+        <f t="shared" si="7"/>
         <v>4.3555282208465246E-2</v>
       </c>
       <c r="G164" s="21">
-        <f>SUM(C164,D164)</f>
+        <f t="shared" si="8"/>
         <v>82567</v>
       </c>
     </row>
@@ -14970,15 +14971,15 @@
         <v>68631</v>
       </c>
       <c r="E165" s="14">
-        <f>1-C165/D165</f>
+        <f t="shared" si="6"/>
         <v>0.27152452973146246</v>
       </c>
       <c r="F165" s="20">
-        <f>E165*13%</f>
+        <f t="shared" si="7"/>
         <v>3.5298188865090119E-2</v>
       </c>
       <c r="G165" s="21">
-        <f>SUM(C165,D165)</f>
+        <f t="shared" si="8"/>
         <v>118627</v>
       </c>
     </row>
@@ -14996,15 +14997,15 @@
         <v>64825</v>
       </c>
       <c r="E166" s="14">
-        <f>1-C166/D166</f>
+        <f t="shared" si="6"/>
         <v>0.21824913227921328</v>
       </c>
       <c r="F166" s="20">
-        <f>E166*13%</f>
+        <f t="shared" si="7"/>
         <v>2.8372387196297727E-2</v>
       </c>
       <c r="G166" s="21">
-        <f>SUM(C166,D166)</f>
+        <f t="shared" si="8"/>
         <v>115502</v>
       </c>
     </row>
@@ -15022,15 +15023,15 @@
         <v>62757</v>
       </c>
       <c r="E167" s="14">
-        <f>1-C167/D167</f>
+        <f t="shared" si="6"/>
         <v>0.21293242188122441</v>
       </c>
       <c r="F167" s="20">
-        <f>E167*13%</f>
+        <f t="shared" si="7"/>
         <v>2.7681214844559175E-2</v>
       </c>
       <c r="G167" s="21">
-        <f>SUM(C167,D167)</f>
+        <f t="shared" si="8"/>
         <v>112151</v>
       </c>
     </row>
@@ -15048,15 +15049,15 @@
         <v>48445</v>
       </c>
       <c r="E168" s="14">
-        <f>1-C168/D168</f>
+        <f t="shared" si="6"/>
         <v>0.16860357105996493</v>
       </c>
       <c r="F168" s="20">
-        <f>E168*13%</f>
+        <f t="shared" si="7"/>
         <v>2.1918464237795442E-2</v>
       </c>
       <c r="G168" s="21">
-        <f>SUM(C168,D168)</f>
+        <f t="shared" si="8"/>
         <v>88722</v>
       </c>
     </row>
@@ -15074,15 +15075,15 @@
         <v>55162</v>
       </c>
       <c r="E169" s="14">
-        <f>1-C169/D169</f>
+        <f t="shared" si="6"/>
         <v>0.16834052427395674</v>
       </c>
       <c r="F169" s="20">
-        <f>E169*13%</f>
+        <f t="shared" si="7"/>
         <v>2.1884268155614377E-2</v>
       </c>
       <c r="G169" s="21">
-        <f>SUM(C169,D169)</f>
+        <f t="shared" si="8"/>
         <v>101038</v>
       </c>
     </row>
@@ -15100,15 +15101,15 @@
         <v>69829</v>
       </c>
       <c r="E170" s="14">
-        <f>1-C170/D170</f>
+        <f t="shared" si="6"/>
         <v>0.13677698377464953</v>
       </c>
       <c r="F170" s="20">
-        <f>E170*13%</f>
+        <f t="shared" si="7"/>
         <v>1.7781007890704439E-2</v>
       </c>
       <c r="G170" s="21">
-        <f>SUM(C170,D170)</f>
+        <f t="shared" si="8"/>
         <v>130107</v>
       </c>
     </row>
@@ -15126,15 +15127,15 @@
         <v>48478</v>
       </c>
       <c r="E171" s="14">
-        <f>1-C171/D171</f>
+        <f t="shared" si="6"/>
         <v>8.6575353768719832E-2</v>
       </c>
       <c r="F171" s="20">
-        <f>E171*13%</f>
+        <f t="shared" si="7"/>
         <v>1.1254795989933579E-2</v>
       </c>
       <c r="G171" s="21">
-        <f>SUM(C171,D171)</f>
+        <f t="shared" si="8"/>
         <v>92759</v>
       </c>
     </row>
@@ -15152,15 +15153,15 @@
         <v>64999</v>
       </c>
       <c r="E172" s="14">
-        <f>1-C172/D172</f>
+        <f t="shared" si="6"/>
         <v>-1.1692487576731914E-2</v>
       </c>
       <c r="F172" s="20">
-        <f>E172*13%</f>
+        <f t="shared" si="7"/>
         <v>-1.5200233849751489E-3</v>
       </c>
       <c r="G172" s="21">
-        <f>SUM(C172,D172)</f>
+        <f t="shared" si="8"/>
         <v>130758</v>
       </c>
     </row>
@@ -15178,15 +15179,15 @@
         <v>38256</v>
       </c>
       <c r="E173" s="14">
-        <f>1-C173/D173</f>
+        <f t="shared" si="6"/>
         <v>-4.5430782099539879E-2</v>
       </c>
       <c r="F173" s="20">
-        <f>E173*13%</f>
+        <f t="shared" si="7"/>
         <v>-5.9060016729401846E-3</v>
       </c>
       <c r="G173" s="21">
-        <f>SUM(C173,D173)</f>
+        <f t="shared" si="8"/>
         <v>78250</v>
       </c>
     </row>
@@ -15204,15 +15205,15 @@
         <v>45756</v>
       </c>
       <c r="E174" s="14">
-        <f>1-C174/D174</f>
+        <f t="shared" si="6"/>
         <v>-5.7041699449252636E-2</v>
       </c>
       <c r="F174" s="20">
-        <f>E174*13%</f>
+        <f t="shared" si="7"/>
         <v>-7.4154209284028431E-3</v>
       </c>
       <c r="G174" s="21">
-        <f>SUM(C174,D174)</f>
+        <f t="shared" si="8"/>
         <v>94122</v>
       </c>
     </row>
@@ -15230,15 +15231,15 @@
         <v>33376</v>
       </c>
       <c r="E175" s="14">
-        <f>1-C175/D175</f>
+        <f t="shared" si="6"/>
         <v>-7.4634467881112165E-2</v>
       </c>
       <c r="F175" s="20">
-        <f>E175*13%</f>
+        <f t="shared" si="7"/>
         <v>-9.7024808245445814E-3</v>
       </c>
       <c r="G175" s="21">
-        <f>SUM(C175,D175)</f>
+        <f t="shared" si="8"/>
         <v>69243</v>
       </c>
     </row>
@@ -15256,15 +15257,15 @@
         <v>54686</v>
       </c>
       <c r="E176" s="14">
-        <f>1-C176/D176</f>
+        <f t="shared" si="6"/>
         <v>-0.11593460849211867</v>
       </c>
       <c r="F176" s="20">
-        <f>E176*13%</f>
+        <f t="shared" si="7"/>
         <v>-1.5071499103975428E-2</v>
       </c>
       <c r="G176" s="21">
-        <f>SUM(C176,D176)</f>
+        <f t="shared" si="8"/>
         <v>115712</v>
       </c>
     </row>
@@ -15282,15 +15283,15 @@
         <v>47489</v>
       </c>
       <c r="E177" s="14">
-        <f>1-C177/D177</f>
+        <f t="shared" si="6"/>
         <v>-0.27800122133546723</v>
       </c>
       <c r="F177" s="20">
-        <f>E177*13%</f>
+        <f t="shared" si="7"/>
         <v>-3.6140158773610744E-2</v>
       </c>
       <c r="G177" s="21">
-        <f>SUM(C177,D177)</f>
+        <f t="shared" si="8"/>
         <v>108180</v>
       </c>
     </row>
@@ -15308,15 +15309,15 @@
         <v>46637</v>
       </c>
       <c r="E178" s="14">
-        <f>1-C178/D178</f>
+        <f t="shared" si="6"/>
         <v>-0.38353667688744997</v>
       </c>
       <c r="F178" s="20">
-        <f>E178*13%</f>
+        <f t="shared" si="7"/>
         <v>-4.9859767995368495E-2</v>
       </c>
       <c r="G178" s="21">
-        <f>SUM(C178,D178)</f>
+        <f t="shared" si="8"/>
         <v>111161</v>
       </c>
     </row>
@@ -15334,15 +15335,15 @@
         <v>33067</v>
       </c>
       <c r="E179" s="14">
-        <f>1-C179/D179</f>
+        <f t="shared" si="6"/>
         <v>-0.43820122781020343</v>
       </c>
       <c r="F179" s="20">
-        <f>E179*13%</f>
+        <f t="shared" si="7"/>
         <v>-5.6966159615326445E-2</v>
       </c>
       <c r="G179" s="21">
-        <f>SUM(C179,D179)</f>
+        <f t="shared" si="8"/>
         <v>80624</v>
       </c>
     </row>
@@ -15360,15 +15361,15 @@
         <v>37061</v>
       </c>
       <c r="E180" s="14">
-        <f>1-C180/D180</f>
+        <f t="shared" si="6"/>
         <v>-0.68279323277839232</v>
       </c>
       <c r="F180" s="20">
-        <f>E180*13%</f>
+        <f t="shared" si="7"/>
         <v>-8.8763120261191E-2</v>
       </c>
       <c r="G180" s="21">
-        <f>SUM(C180,D180)</f>
+        <f t="shared" si="8"/>
         <v>99427</v>
       </c>
     </row>
@@ -15386,15 +15387,15 @@
         <v>35361</v>
       </c>
       <c r="E181" s="14">
-        <f>1-C181/D181</f>
+        <f t="shared" si="6"/>
         <v>-0.86425723254432851</v>
       </c>
       <c r="F181" s="20">
-        <f>E181*13%</f>
+        <f t="shared" si="7"/>
         <v>-0.11235344023076271</v>
       </c>
       <c r="G181" s="21">
-        <f>SUM(C181,D181)</f>
+        <f t="shared" si="8"/>
         <v>101283</v>
       </c>
     </row>
@@ -15412,15 +15413,15 @@
         <v>31565</v>
       </c>
       <c r="E182" s="14">
-        <f>1-C182/D182</f>
+        <f t="shared" si="6"/>
         <v>-0.95634405195628069</v>
       </c>
       <c r="F182" s="20">
-        <f>E182*13%</f>
+        <f t="shared" si="7"/>
         <v>-0.12432472675431649</v>
       </c>
       <c r="G182" s="21">
-        <f>SUM(C182,D182)</f>
+        <f t="shared" si="8"/>
         <v>93317</v>
       </c>
     </row>
@@ -15438,15 +15439,15 @@
         <v>57772</v>
       </c>
       <c r="E183" s="14">
-        <f>1-C183/D183</f>
+        <f t="shared" si="6"/>
         <v>0.41154884719241158</v>
       </c>
       <c r="F183" s="20">
-        <f>E183*13%</f>
+        <f t="shared" si="7"/>
         <v>5.350135013501351E-2</v>
       </c>
       <c r="G183" s="21">
-        <f>SUM(C183,D183)</f>
+        <f t="shared" si="8"/>
         <v>91768</v>
       </c>
     </row>
@@ -15464,15 +15465,15 @@
         <v>59020</v>
       </c>
       <c r="E184" s="14">
-        <f>1-C184/D184</f>
+        <f t="shared" si="6"/>
         <v>0.24654354456116567</v>
       </c>
       <c r="F184" s="20">
-        <f>E184*13%</f>
+        <f t="shared" si="7"/>
         <v>3.2050660792951539E-2</v>
       </c>
       <c r="G184" s="21">
-        <f>SUM(C184,D184)</f>
+        <f t="shared" si="8"/>
         <v>103489</v>
       </c>
     </row>
@@ -15490,15 +15491,15 @@
         <v>43889</v>
       </c>
       <c r="E185" s="14">
-        <f>1-C185/D185</f>
+        <f t="shared" si="6"/>
         <v>0.14361229465241865</v>
       </c>
       <c r="F185" s="20">
-        <f>E185*13%</f>
+        <f t="shared" si="7"/>
         <v>1.8669598304814426E-2</v>
       </c>
       <c r="G185" s="21">
-        <f>SUM(C185,D185)</f>
+        <f t="shared" si="8"/>
         <v>81475</v>
       </c>
     </row>
@@ -15516,15 +15517,15 @@
         <v>63440</v>
       </c>
       <c r="E186" s="14">
-        <f>1-C186/D186</f>
+        <f t="shared" si="6"/>
         <v>3.0895334174022682E-2</v>
       </c>
       <c r="F186" s="20">
-        <f>E186*13%</f>
+        <f t="shared" si="7"/>
         <v>4.0163934426229488E-3</v>
       </c>
       <c r="G186" s="21">
-        <f>SUM(C186,D186)</f>
+        <f t="shared" si="8"/>
         <v>124920</v>
       </c>
     </row>
@@ -15542,15 +15543,15 @@
         <v>34720</v>
       </c>
       <c r="E187" s="14">
-        <f>1-C187/D187</f>
+        <f t="shared" si="6"/>
         <v>6.1923963133641013E-3</v>
       </c>
       <c r="F187" s="20">
-        <f>E187*13%</f>
+        <f t="shared" si="7"/>
         <v>8.0501152073733325E-4</v>
       </c>
       <c r="G187" s="21">
-        <f>SUM(C187,D187)</f>
+        <f t="shared" si="8"/>
         <v>69225</v>
       </c>
     </row>
@@ -15568,15 +15569,15 @@
         <v>49796</v>
       </c>
       <c r="E188" s="14">
-        <f>1-C188/D188</f>
+        <f t="shared" si="6"/>
         <v>-0.39581492489356584</v>
       </c>
       <c r="F188" s="20">
-        <f>E188*13%</f>
+        <f t="shared" si="7"/>
         <v>-5.145594023616356E-2</v>
       </c>
       <c r="G188" s="21">
-        <f>SUM(C188,D188)</f>
+        <f t="shared" si="8"/>
         <v>119302</v>
       </c>
     </row>
@@ -15594,15 +15595,15 @@
         <v>33568</v>
       </c>
       <c r="E189" s="14">
-        <f>1-C189/D189</f>
+        <f t="shared" si="6"/>
         <v>-0.51784437559580554</v>
       </c>
       <c r="F189" s="20">
-        <f>E189*13%</f>
+        <f t="shared" si="7"/>
         <v>-6.7319768827454718E-2</v>
       </c>
       <c r="G189" s="21">
-        <f>SUM(C189,D189)</f>
+        <f t="shared" si="8"/>
         <v>84519</v>
       </c>
     </row>
@@ -15620,15 +15621,15 @@
         <v>30760</v>
       </c>
       <c r="E190" s="14">
-        <f>1-C190/D190</f>
+        <f t="shared" si="6"/>
         <v>-0.88140442132639785</v>
       </c>
       <c r="F190" s="20">
-        <f>E190*13%</f>
+        <f t="shared" si="7"/>
         <v>-0.11458257477243172</v>
       </c>
       <c r="G190" s="21">
-        <f>SUM(C190,D190)</f>
+        <f t="shared" si="8"/>
         <v>88632</v>
       </c>
     </row>
@@ -15646,15 +15647,15 @@
         <v>66893</v>
       </c>
       <c r="E191" s="14">
-        <f>1-C191/D191</f>
+        <f t="shared" si="6"/>
         <v>0.4406290643266112</v>
       </c>
       <c r="F191" s="20">
-        <f>E191*13%</f>
+        <f t="shared" si="7"/>
         <v>5.7281778362459457E-2</v>
       </c>
       <c r="G191" s="21">
-        <f>SUM(C191,D191)</f>
+        <f t="shared" si="8"/>
         <v>104311</v>
       </c>
     </row>
@@ -15672,15 +15673,15 @@
         <v>62728</v>
       </c>
       <c r="E192" s="14">
-        <f>1-C192/D192</f>
+        <f t="shared" si="6"/>
         <v>0.27330697615100119</v>
       </c>
       <c r="F192" s="20">
-        <f>E192*13%</f>
+        <f t="shared" si="7"/>
         <v>3.5529906899630155E-2</v>
       </c>
       <c r="G192" s="21">
-        <f>SUM(C192,D192)</f>
+        <f t="shared" si="8"/>
         <v>108312</v>
       </c>
     </row>
@@ -15698,15 +15699,15 @@
         <v>64843</v>
       </c>
       <c r="E193" s="14">
-        <f>1-C193/D193</f>
+        <f t="shared" si="6"/>
         <v>0.26298906589762971</v>
       </c>
       <c r="F193" s="20">
-        <f>E193*13%</f>
+        <f t="shared" si="7"/>
         <v>3.4188578566691864E-2</v>
       </c>
       <c r="G193" s="21">
-        <f>SUM(C193,D193)</f>
+        <f t="shared" si="8"/>
         <v>112633</v>
       </c>
     </row>
@@ -15724,15 +15725,15 @@
         <v>44745</v>
       </c>
       <c r="E194" s="14">
-        <f>1-C194/D194</f>
+        <f t="shared" si="6"/>
         <v>0.23707676835400604</v>
       </c>
       <c r="F194" s="20">
-        <f>E194*13%</f>
+        <f t="shared" si="7"/>
         <v>3.0819979886020785E-2</v>
       </c>
       <c r="G194" s="21">
-        <f>SUM(C194,D194)</f>
+        <f t="shared" si="8"/>
         <v>78882</v>
       </c>
     </row>
@@ -15750,15 +15751,15 @@
         <v>69873</v>
       </c>
       <c r="E195" s="14">
-        <f>1-C195/D195</f>
+        <f t="shared" ref="E195:E238" si="9">1-C195/D195</f>
         <v>8.2621327265181121E-2</v>
       </c>
       <c r="F195" s="20">
-        <f>E195*13%</f>
+        <f t="shared" ref="F195:F238" si="10">E195*13%</f>
         <v>1.0740772544473547E-2</v>
       </c>
       <c r="G195" s="21">
-        <f>SUM(C195,D195)</f>
+        <f t="shared" ref="G195:G238" si="11">SUM(C195,D195)</f>
         <v>133973</v>
       </c>
     </row>
@@ -15776,15 +15777,15 @@
         <v>55405</v>
       </c>
       <c r="E196" s="14">
-        <f>1-C196/D196</f>
+        <f t="shared" si="9"/>
         <v>1.001714646692542E-2</v>
       </c>
       <c r="F196" s="20">
-        <f>E196*13%</f>
+        <f t="shared" si="10"/>
         <v>1.3022290407003047E-3</v>
       </c>
       <c r="G196" s="21">
-        <f>SUM(C196,D196)</f>
+        <f t="shared" si="11"/>
         <v>110255</v>
       </c>
     </row>
@@ -15802,15 +15803,15 @@
         <v>41816</v>
       </c>
       <c r="E197" s="14">
-        <f>1-C197/D197</f>
+        <f t="shared" si="9"/>
         <v>-0.38250908743064849</v>
       </c>
       <c r="F197" s="20">
-        <f>E197*13%</f>
+        <f t="shared" si="10"/>
         <v>-4.9726181365984307E-2</v>
       </c>
       <c r="G197" s="21">
-        <f>SUM(C197,D197)</f>
+        <f t="shared" si="11"/>
         <v>99627</v>
       </c>
     </row>
@@ -15828,15 +15829,15 @@
         <v>34035</v>
       </c>
       <c r="E198" s="14">
-        <f>1-C198/D198</f>
+        <f t="shared" si="9"/>
         <v>-0.76665197590715439</v>
       </c>
       <c r="F198" s="20">
-        <f>E198*13%</f>
+        <f t="shared" si="10"/>
         <v>-9.9664756867930068E-2</v>
       </c>
       <c r="G198" s="21">
-        <f>SUM(C198,D198)</f>
+        <f t="shared" si="11"/>
         <v>94163</v>
       </c>
     </row>
@@ -15854,15 +15855,15 @@
         <v>67535</v>
       </c>
       <c r="E199" s="14">
-        <f>1-C199/D199</f>
+        <f t="shared" si="9"/>
         <v>0.47748574813059896</v>
       </c>
       <c r="F199" s="20">
-        <f>E199*13%</f>
+        <f t="shared" si="10"/>
         <v>6.2073147256977865E-2</v>
       </c>
       <c r="G199" s="21">
-        <f>SUM(C199,D199)</f>
+        <f t="shared" si="11"/>
         <v>102823</v>
       </c>
     </row>
@@ -15880,15 +15881,15 @@
         <v>65806</v>
       </c>
       <c r="E200" s="14">
-        <f>1-C200/D200</f>
+        <f t="shared" si="9"/>
         <v>0.43389660517278061</v>
       </c>
       <c r="F200" s="20">
-        <f>E200*13%</f>
+        <f t="shared" si="10"/>
         <v>5.6406558672461485E-2</v>
       </c>
       <c r="G200" s="21">
-        <f>SUM(C200,D200)</f>
+        <f t="shared" si="11"/>
         <v>103059</v>
       </c>
     </row>
@@ -15906,15 +15907,15 @@
         <v>56399</v>
       </c>
       <c r="E201" s="14">
-        <f>1-C201/D201</f>
+        <f t="shared" si="9"/>
         <v>0.3638894306636643</v>
       </c>
       <c r="F201" s="20">
-        <f>E201*13%</f>
+        <f t="shared" si="10"/>
         <v>4.7305625986276363E-2</v>
       </c>
       <c r="G201" s="21">
-        <f>SUM(C201,D201)</f>
+        <f t="shared" si="11"/>
         <v>92275</v>
       </c>
     </row>
@@ -15932,15 +15933,15 @@
         <v>69783</v>
       </c>
       <c r="E202" s="14">
-        <f>1-C202/D202</f>
+        <f t="shared" si="9"/>
         <v>0.27807632231345747</v>
       </c>
       <c r="F202" s="20">
-        <f>E202*13%</f>
+        <f t="shared" si="10"/>
         <v>3.614992190074947E-2</v>
       </c>
       <c r="G202" s="21">
-        <f>SUM(C202,D202)</f>
+        <f t="shared" si="11"/>
         <v>120161</v>
       </c>
     </row>
@@ -15958,15 +15959,15 @@
         <v>67065</v>
       </c>
       <c r="E203" s="14">
-        <f>1-C203/D203</f>
+        <f t="shared" si="9"/>
         <v>0.26778498471631995</v>
       </c>
       <c r="F203" s="20">
-        <f>E203*13%</f>
+        <f t="shared" si="10"/>
         <v>3.4812048013121592E-2</v>
       </c>
       <c r="G203" s="21">
-        <f>SUM(C203,D203)</f>
+        <f t="shared" si="11"/>
         <v>116171</v>
       </c>
     </row>
@@ -15984,15 +15985,15 @@
         <v>63156</v>
       </c>
       <c r="E204" s="14">
-        <f>1-C204/D204</f>
+        <f t="shared" si="9"/>
         <v>0.25791690417379187</v>
       </c>
       <c r="F204" s="20">
-        <f>E204*13%</f>
+        <f t="shared" si="10"/>
         <v>3.3529197542592946E-2</v>
       </c>
       <c r="G204" s="21">
-        <f>SUM(C204,D204)</f>
+        <f t="shared" si="11"/>
         <v>110023</v>
       </c>
     </row>
@@ -16010,15 +16011,15 @@
         <v>64074</v>
       </c>
       <c r="E205" s="14">
-        <f>1-C205/D205</f>
+        <f t="shared" si="9"/>
         <v>0.24658988045072883</v>
       </c>
       <c r="F205" s="20">
-        <f>E205*13%</f>
+        <f t="shared" si="10"/>
         <v>3.2056684458594747E-2</v>
       </c>
       <c r="G205" s="21">
-        <f>SUM(C205,D205)</f>
+        <f t="shared" si="11"/>
         <v>112348</v>
       </c>
     </row>
@@ -16036,15 +16037,15 @@
         <v>43561</v>
       </c>
       <c r="E206" s="14">
-        <f>1-C206/D206</f>
+        <f t="shared" si="9"/>
         <v>0.23133077753035969</v>
       </c>
       <c r="F206" s="20">
-        <f>E206*13%</f>
+        <f t="shared" si="10"/>
         <v>3.0073001078946761E-2</v>
       </c>
       <c r="G206" s="21">
-        <f>SUM(C206,D206)</f>
+        <f t="shared" si="11"/>
         <v>77045</v>
       </c>
     </row>
@@ -16062,15 +16063,15 @@
         <v>50809</v>
       </c>
       <c r="E207" s="14">
-        <f>1-C207/D207</f>
+        <f t="shared" si="9"/>
         <v>0.19161959495365</v>
       </c>
       <c r="F207" s="20">
-        <f>E207*13%</f>
+        <f t="shared" si="10"/>
         <v>2.49105473439745E-2</v>
       </c>
       <c r="G207" s="21">
-        <f>SUM(C207,D207)</f>
+        <f t="shared" si="11"/>
         <v>91882</v>
       </c>
     </row>
@@ -16088,15 +16089,15 @@
         <v>58984</v>
       </c>
       <c r="E208" s="14">
-        <f>1-C208/D208</f>
+        <f t="shared" si="9"/>
         <v>0.17275871422758715</v>
       </c>
       <c r="F208" s="20">
-        <f>E208*13%</f>
+        <f t="shared" si="10"/>
         <v>2.2458632849586331E-2</v>
       </c>
       <c r="G208" s="21">
-        <f>SUM(C208,D208)</f>
+        <f t="shared" si="11"/>
         <v>107778</v>
       </c>
     </row>
@@ -16114,15 +16115,15 @@
         <v>56000</v>
       </c>
       <c r="E209" s="14">
-        <f>1-C209/D209</f>
+        <f t="shared" si="9"/>
         <v>0.1607142857142857</v>
       </c>
       <c r="F209" s="20">
-        <f>E209*13%</f>
+        <f t="shared" si="10"/>
         <v>2.089285714285714E-2</v>
       </c>
       <c r="G209" s="21">
-        <f>SUM(C209,D209)</f>
+        <f t="shared" si="11"/>
         <v>103000</v>
       </c>
     </row>
@@ -16140,15 +16141,15 @@
         <v>48410</v>
       </c>
       <c r="E210" s="14">
-        <f>1-C210/D210</f>
+        <f t="shared" si="9"/>
         <v>0.1322867176203264</v>
       </c>
       <c r="F210" s="20">
-        <f>E210*13%</f>
+        <f t="shared" si="10"/>
         <v>1.7197273290642433E-2</v>
       </c>
       <c r="G210" s="21">
-        <f>SUM(C210,D210)</f>
+        <f t="shared" si="11"/>
         <v>90416</v>
       </c>
     </row>
@@ -16166,15 +16167,15 @@
         <v>65656</v>
       </c>
       <c r="E211" s="14">
-        <f>1-C211/D211</f>
+        <f t="shared" si="9"/>
         <v>0.11651638844888512</v>
       </c>
       <c r="F211" s="20">
-        <f>E211*13%</f>
+        <f t="shared" si="10"/>
         <v>1.5147130498355066E-2</v>
       </c>
       <c r="G211" s="21">
-        <f>SUM(C211,D211)</f>
+        <f t="shared" si="11"/>
         <v>123662</v>
       </c>
     </row>
@@ -16192,15 +16193,15 @@
         <v>60882</v>
       </c>
       <c r="E212" s="14">
-        <f>1-C212/D212</f>
+        <f t="shared" si="9"/>
         <v>0.10898130810420159</v>
       </c>
       <c r="F212" s="20">
-        <f>E212*13%</f>
+        <f t="shared" si="10"/>
         <v>1.4167570053546207E-2</v>
       </c>
       <c r="G212" s="21">
-        <f>SUM(C212,D212)</f>
+        <f t="shared" si="11"/>
         <v>115129</v>
       </c>
     </row>
@@ -16218,15 +16219,15 @@
         <v>45138</v>
       </c>
       <c r="E213" s="14">
-        <f>1-C213/D213</f>
+        <f t="shared" si="9"/>
         <v>6.3161859187380931E-2</v>
       </c>
       <c r="F213" s="20">
-        <f>E213*13%</f>
+        <f t="shared" si="10"/>
         <v>8.2110416943595218E-3</v>
       </c>
       <c r="G213" s="21">
-        <f>SUM(C213,D213)</f>
+        <f t="shared" si="11"/>
         <v>87425</v>
       </c>
     </row>
@@ -16244,15 +16245,15 @@
         <v>51079</v>
       </c>
       <c r="E214" s="14">
-        <f>1-C214/D214</f>
+        <f t="shared" si="9"/>
         <v>5.9887625051391002E-2</v>
       </c>
       <c r="F214" s="20">
-        <f>E214*13%</f>
+        <f t="shared" si="10"/>
         <v>7.7853912566808302E-3</v>
       </c>
       <c r="G214" s="21">
-        <f>SUM(C214,D214)</f>
+        <f t="shared" si="11"/>
         <v>99099</v>
       </c>
     </row>
@@ -16270,15 +16271,15 @@
         <v>35631</v>
       </c>
       <c r="E215" s="14">
-        <f>1-C215/D215</f>
+        <f t="shared" si="9"/>
         <v>5.2089472650220348E-2</v>
       </c>
       <c r="F215" s="20">
-        <f>E215*13%</f>
+        <f t="shared" si="10"/>
         <v>6.7716314445286458E-3</v>
       </c>
       <c r="G215" s="21">
-        <f>SUM(C215,D215)</f>
+        <f t="shared" si="11"/>
         <v>69406</v>
       </c>
     </row>
@@ -16296,15 +16297,15 @@
         <v>61083</v>
       </c>
       <c r="E216" s="14">
-        <f>1-C216/D216</f>
+        <f t="shared" si="9"/>
         <v>2.7487189561743897E-2</v>
       </c>
       <c r="F216" s="20">
-        <f>E216*13%</f>
+        <f t="shared" si="10"/>
         <v>3.5733346430267066E-3</v>
       </c>
       <c r="G216" s="21">
-        <f>SUM(C216,D216)</f>
+        <f t="shared" si="11"/>
         <v>120487</v>
       </c>
     </row>
@@ -16322,15 +16323,15 @@
         <v>45167</v>
       </c>
       <c r="E217" s="14">
-        <f>1-C217/D217</f>
+        <f t="shared" si="9"/>
         <v>2.4841145083800087E-2</v>
       </c>
       <c r="F217" s="20">
-        <f>E217*13%</f>
+        <f t="shared" si="10"/>
         <v>3.2293488608940114E-3</v>
       </c>
       <c r="G217" s="21">
-        <f>SUM(C217,D217)</f>
+        <f t="shared" si="11"/>
         <v>89212</v>
       </c>
     </row>
@@ -16348,15 +16349,15 @@
         <v>54864</v>
       </c>
       <c r="E218" s="14">
-        <f>1-C218/D218</f>
+        <f t="shared" si="9"/>
         <v>2.4551618547681509E-2</v>
       </c>
       <c r="F218" s="20">
-        <f>E218*13%</f>
+        <f t="shared" si="10"/>
         <v>3.1917104111985964E-3</v>
       </c>
       <c r="G218" s="21">
-        <f>SUM(C218,D218)</f>
+        <f t="shared" si="11"/>
         <v>108381</v>
       </c>
     </row>
@@ -16374,15 +16375,15 @@
         <v>49660</v>
       </c>
       <c r="E219" s="14">
-        <f>1-C219/D219</f>
+        <f t="shared" si="9"/>
         <v>-1.3149416028997107E-2</v>
       </c>
       <c r="F219" s="20">
-        <f>E219*13%</f>
+        <f t="shared" si="10"/>
         <v>-1.709424083769624E-3</v>
       </c>
       <c r="G219" s="21">
-        <f>SUM(C219,D219)</f>
+        <f t="shared" si="11"/>
         <v>99973</v>
       </c>
     </row>
@@ -16400,15 +16401,15 @@
         <v>37236</v>
       </c>
       <c r="E220" s="14">
-        <f>1-C220/D220</f>
+        <f t="shared" si="9"/>
         <v>-1.7724782468578892E-2</v>
       </c>
       <c r="F220" s="20">
-        <f>E220*13%</f>
+        <f t="shared" si="10"/>
         <v>-2.3042217209152563E-3</v>
       </c>
       <c r="G220" s="21">
-        <f>SUM(C220,D220)</f>
+        <f t="shared" si="11"/>
         <v>75132</v>
       </c>
     </row>
@@ -16426,15 +16427,15 @@
         <v>51824</v>
       </c>
       <c r="E221" s="14">
-        <f>1-C221/D221</f>
+        <f t="shared" si="9"/>
         <v>-2.9600185242358856E-2</v>
       </c>
       <c r="F221" s="20">
-        <f>E221*13%</f>
+        <f t="shared" si="10"/>
         <v>-3.8480240815066515E-3</v>
       </c>
       <c r="G221" s="21">
-        <f>SUM(C221,D221)</f>
+        <f t="shared" si="11"/>
         <v>105182</v>
       </c>
     </row>
@@ -16452,15 +16453,15 @@
         <v>35858</v>
       </c>
       <c r="E222" s="14">
-        <f>1-C222/D222</f>
+        <f t="shared" si="9"/>
         <v>-3.7202297953037089E-2</v>
       </c>
       <c r="F222" s="20">
-        <f>E222*13%</f>
+        <f t="shared" si="10"/>
         <v>-4.8362987338948218E-3</v>
       </c>
       <c r="G222" s="21">
-        <f>SUM(C222,D222)</f>
+        <f t="shared" si="11"/>
         <v>73050</v>
       </c>
     </row>
@@ -16478,15 +16479,15 @@
         <v>51717</v>
       </c>
       <c r="E223" s="14">
-        <f>1-C223/D223</f>
+        <f t="shared" si="9"/>
         <v>-5.8568749154049859E-2</v>
       </c>
       <c r="F223" s="20">
-        <f>E223*13%</f>
+        <f t="shared" si="10"/>
         <v>-7.6139373900264819E-3</v>
       </c>
       <c r="G223" s="21">
-        <f>SUM(C223,D223)</f>
+        <f t="shared" si="11"/>
         <v>106463</v>
       </c>
     </row>
@@ -16504,15 +16505,15 @@
         <v>34124</v>
       </c>
       <c r="E224" s="14">
-        <f>1-C224/D224</f>
+        <f t="shared" si="9"/>
         <v>-6.8251084280858132E-2</v>
       </c>
       <c r="F224" s="20">
-        <f>E224*13%</f>
+        <f t="shared" si="10"/>
         <v>-8.8726409565115568E-3</v>
       </c>
       <c r="G224" s="21">
-        <f>SUM(C224,D224)</f>
+        <f t="shared" si="11"/>
         <v>70577</v>
       </c>
     </row>
@@ -16530,15 +16531,15 @@
         <v>58477</v>
       </c>
       <c r="E225" s="14">
-        <f>1-C225/D225</f>
+        <f t="shared" si="9"/>
         <v>-7.2746549925611692E-2</v>
       </c>
       <c r="F225" s="20">
-        <f>E225*13%</f>
+        <f t="shared" si="10"/>
         <v>-9.4570514903295211E-3</v>
       </c>
       <c r="G225" s="21">
-        <f>SUM(C225,D225)</f>
+        <f t="shared" si="11"/>
         <v>121208</v>
       </c>
     </row>
@@ -16556,15 +16557,15 @@
         <v>52748</v>
       </c>
       <c r="E226" s="14">
-        <f>1-C226/D226</f>
+        <f t="shared" si="9"/>
         <v>-0.10313187229847576</v>
       </c>
       <c r="F226" s="20">
-        <f>E226*13%</f>
+        <f t="shared" si="10"/>
         <v>-1.3407143398801849E-2</v>
       </c>
       <c r="G226" s="21">
-        <f>SUM(C226,D226)</f>
+        <f t="shared" si="11"/>
         <v>110936</v>
       </c>
     </row>
@@ -16582,15 +16583,15 @@
         <v>49077</v>
       </c>
       <c r="E227" s="14">
-        <f>1-C227/D227</f>
+        <f t="shared" si="9"/>
         <v>-0.11940420156081255</v>
       </c>
       <c r="F227" s="20">
-        <f>E227*13%</f>
+        <f t="shared" si="10"/>
         <v>-1.5522546202905631E-2</v>
       </c>
       <c r="G227" s="21">
-        <f>SUM(C227,D227)</f>
+        <f t="shared" si="11"/>
         <v>104014</v>
       </c>
     </row>
@@ -16608,15 +16609,15 @@
         <v>33210</v>
       </c>
       <c r="E228" s="14">
-        <f>1-C228/D228</f>
+        <f t="shared" si="9"/>
         <v>-0.16413730803974702</v>
       </c>
       <c r="F228" s="20">
-        <f>E228*13%</f>
+        <f t="shared" si="10"/>
         <v>-2.1337850045167115E-2</v>
       </c>
       <c r="G228" s="21">
-        <f>SUM(C228,D228)</f>
+        <f t="shared" si="11"/>
         <v>71871</v>
       </c>
     </row>
@@ -16634,15 +16635,15 @@
         <v>41174</v>
       </c>
       <c r="E229" s="14">
-        <f>1-C229/D229</f>
+        <f t="shared" si="9"/>
         <v>-0.18603973381260008</v>
       </c>
       <c r="F229" s="20">
-        <f>E229*13%</f>
+        <f t="shared" si="10"/>
         <v>-2.418516539563801E-2</v>
       </c>
       <c r="G229" s="21">
-        <f>SUM(C229,D229)</f>
+        <f t="shared" si="11"/>
         <v>90008</v>
       </c>
     </row>
@@ -16660,15 +16661,15 @@
         <v>30863</v>
       </c>
       <c r="E230" s="14">
-        <f>1-C230/D230</f>
+        <f t="shared" si="9"/>
         <v>-0.20286427113372008</v>
       </c>
       <c r="F230" s="20">
-        <f>E230*13%</f>
+        <f t="shared" si="10"/>
         <v>-2.637235524738361E-2</v>
       </c>
       <c r="G230" s="21">
-        <f>SUM(C230,D230)</f>
+        <f t="shared" si="11"/>
         <v>67987</v>
       </c>
     </row>
@@ -16686,15 +16687,15 @@
         <v>33081</v>
       </c>
       <c r="E231" s="14">
-        <f>1-C231/D231</f>
+        <f t="shared" si="9"/>
         <v>-0.20655361083401358</v>
       </c>
       <c r="F231" s="20">
-        <f>E231*13%</f>
+        <f t="shared" si="10"/>
         <v>-2.6851969408421765E-2</v>
       </c>
       <c r="G231" s="21">
-        <f>SUM(C231,D231)</f>
+        <f t="shared" si="11"/>
         <v>72995</v>
       </c>
     </row>
@@ -16712,15 +16713,15 @@
         <v>34638</v>
       </c>
       <c r="E232" s="14">
-        <f>1-C232/D232</f>
+        <f t="shared" si="9"/>
         <v>-0.24900398406374502</v>
       </c>
       <c r="F232" s="20">
-        <f>E232*13%</f>
+        <f t="shared" si="10"/>
         <v>-3.2370517928286852E-2</v>
       </c>
       <c r="G232" s="21">
-        <f>SUM(C232,D232)</f>
+        <f t="shared" si="11"/>
         <v>77901</v>
       </c>
     </row>
@@ -16738,15 +16739,15 @@
         <v>40915</v>
       </c>
       <c r="E233" s="14">
-        <f>1-C233/D233</f>
+        <f t="shared" si="9"/>
         <v>-0.29206892337773427</v>
       </c>
       <c r="F233" s="20">
-        <f>E233*13%</f>
+        <f t="shared" si="10"/>
         <v>-3.7968960039105458E-2</v>
       </c>
       <c r="G233" s="21">
-        <f>SUM(C233,D233)</f>
+        <f t="shared" si="11"/>
         <v>93780</v>
       </c>
     </row>
@@ -16764,15 +16765,15 @@
         <v>38761</v>
       </c>
       <c r="E234" s="14">
-        <f>1-C234/D234</f>
+        <f t="shared" si="9"/>
         <v>-0.33807177317406678</v>
       </c>
       <c r="F234" s="20">
-        <f>E234*13%</f>
+        <f t="shared" si="10"/>
         <v>-4.3949330512628684E-2</v>
       </c>
       <c r="G234" s="21">
-        <f>SUM(C234,D234)</f>
+        <f t="shared" si="11"/>
         <v>90626</v>
       </c>
     </row>
@@ -16790,15 +16791,15 @@
         <v>33676</v>
       </c>
       <c r="E235" s="14">
-        <f>1-C235/D235</f>
+        <f t="shared" si="9"/>
         <v>-0.39909727996199074</v>
       </c>
       <c r="F235" s="20">
-        <f>E235*13%</f>
+        <f t="shared" si="10"/>
         <v>-5.1882646395058796E-2</v>
       </c>
       <c r="G235" s="21">
-        <f>SUM(C235,D235)</f>
+        <f t="shared" si="11"/>
         <v>80792</v>
       </c>
     </row>
@@ -16816,15 +16817,15 @@
         <v>31798</v>
       </c>
       <c r="E236" s="14">
-        <f>1-C236/D236</f>
+        <f t="shared" si="9"/>
         <v>-0.51459211271149119</v>
       </c>
       <c r="F236" s="20">
-        <f>E236*13%</f>
+        <f t="shared" si="10"/>
         <v>-6.6896974652493862E-2</v>
       </c>
       <c r="G236" s="21">
-        <f>SUM(C236,D236)</f>
+        <f t="shared" si="11"/>
         <v>79959</v>
       </c>
     </row>
@@ -16842,15 +16843,15 @@
         <v>31017</v>
       </c>
       <c r="E237" s="14">
-        <f>1-C237/D237</f>
+        <f t="shared" si="9"/>
         <v>-0.5366734371473707</v>
       </c>
       <c r="F237" s="20">
-        <f>E237*13%</f>
+        <f t="shared" si="10"/>
         <v>-6.97675468291582E-2</v>
       </c>
       <c r="G237" s="21">
-        <f>SUM(C237,D237)</f>
+        <f t="shared" si="11"/>
         <v>78680</v>
       </c>
     </row>
@@ -16868,19 +16869,19 @@
         <v>32159</v>
       </c>
       <c r="E238" s="14">
-        <f>1-C238/D238</f>
+        <f t="shared" si="9"/>
         <v>-0.7570509033241084</v>
       </c>
       <c r="F238" s="20">
-        <f>E238*13%</f>
+        <f t="shared" si="10"/>
         <v>-9.841661743213409E-2</v>
       </c>
       <c r="G238" s="21">
-        <f>SUM(C238,D238)</f>
+        <f t="shared" si="11"/>
         <v>88664</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="22" t="s">
         <v>51</v>
       </c>
@@ -16894,7 +16895,7 @@
       <c r="F239" s="23"/>
       <c r="G239" s="23"/>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="22" t="s">
         <v>52</v>
       </c>
@@ -16908,56 +16909,35 @@
       <c r="F240" s="23"/>
       <c r="G240" s="23"/>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B241" s="23"/>
       <c r="C241" s="21">
-        <f>AVERAGE(C3:C240)</f>
-        <v>98416.109704641349</v>
+        <f>AVERAGE(C3:C238)</f>
+        <v>49416.563559322036</v>
       </c>
       <c r="D241" s="21"/>
       <c r="E241" s="23"/>
       <c r="F241" s="23"/>
       <c r="G241" s="23"/>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B242" s="23"/>
       <c r="C242" s="21"/>
       <c r="D242" s="21">
-        <f>AVERAGE(D3:D240)</f>
-        <v>100055.89873417722</v>
+        <f>AVERAGE(D3:D238)</f>
+        <v>50239.932203389828</v>
       </c>
       <c r="E242" s="23"/>
       <c r="F242" s="23"/>
       <c r="G242" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G242" xr:uid="{55FA7F92-0E6A-4827-B0BD-254738F03125}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Abruzzo"/>
-        <filter val="Calabria"/>
-        <filter val="Campania"/>
-        <filter val="Emilia"/>
-        <filter val="Lazio"/>
-        <filter val="Lombardia"/>
-        <filter val="Piemonte"/>
-        <filter val="Puglia"/>
-        <filter val="Regione"/>
-        <filter val="Sardegna"/>
-        <filter val="Sicilia"/>
-        <filter val="Veneto"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G238">
-      <sortCondition ref="A2:A242"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G238">
     <sortCondition ref="A3:A238"/>
     <sortCondition descending="1" ref="E3:E238"/>
@@ -16975,7 +16955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01AA998-89DD-4187-967E-838A04985E49}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -17061,19 +17041,19 @@
       <c r="D4">
         <v>56000</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4">
         <v>52865</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4">
         <v>40915</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <v>-11950</v>
       </c>
     </row>
@@ -17090,19 +17070,19 @@
       <c r="D5">
         <v>38579</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5">
         <v>41073</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5">
         <v>50809</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>9736</v>
       </c>
     </row>
@@ -17119,19 +17099,19 @@
       <c r="D6">
         <v>59326</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <v>33484</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="28">
         <v>43561</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="29">
         <v>10077</v>
       </c>
     </row>
